--- a/weo_data_dirty_missings.xlsx
+++ b/weo_data_dirty_missings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="59">
   <si>
     <t>Country</t>
   </si>
@@ -235,7 +235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK58"/>
+  <dimension ref="A1:AK64"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -692,5893 +692,6571 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1">
-        <v>21885.360000000001</v>
+        <v>21243.720000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>21805.950000000001</v>
+        <v>21179.950000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>21955.25</v>
+        <v>21556.950000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>22016.060000000001</v>
+        <v>22226.939999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>22570.490000000002</v>
+        <v>22298.279999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>22932.369999999999</v>
+        <v>22783.130000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>23347.599999999999</v>
+        <v>23292.029999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>23871.970000000001</v>
+        <v>23651.889999999999</v>
       </c>
       <c r="K5" s="1">
-        <v>24971.73</v>
+        <v>23848.830000000002</v>
       </c>
       <c r="L5" s="1">
-        <v>25702.98</v>
+        <v>24717.130000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>26455.630000000001</v>
+        <v>25620.880000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>26834.860000000001</v>
+        <v>26275.470000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>27150.400000000001</v>
+        <v>26522.860000000001</v>
       </c>
       <c r="P5" s="1">
-        <v>26765.529999999999</v>
+        <v>26379.810000000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>27540.860000000001</v>
+        <v>26856.080000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>28114.299999999999</v>
+        <v>27521.220000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>28515.299999999999</v>
+        <v>28147.25</v>
       </c>
       <c r="T5" s="1">
-        <v>29503.669999999998</v>
+        <v>28724.919999999998</v>
       </c>
       <c r="U5" s="1">
-        <v>30030.52</v>
+        <v>29724.759999999998</v>
       </c>
       <c r="V5" s="1">
-        <v>31080.939999999999</v>
+        <v>30747.900000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>32104.82</v>
+        <v>31705.360000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>32324.82</v>
+        <v>32058.630000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>32681.380000000001</v>
+        <v>32416.900000000001</v>
       </c>
       <c r="Z5" s="1">
-        <v>32825.330000000002</v>
+        <v>32514.040000000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>33820.199999999997</v>
+        <v>33220.309999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>34297.730000000003</v>
+        <v>33688.18</v>
       </c>
       <c r="AC5" s="1">
-        <v>34980.459999999999</v>
+        <v>34593.879999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>35780.980000000003</v>
+        <v>35722.489999999998</v>
       </c>
       <c r="AE5" s="1">
-        <v>35843.239999999998</v>
+        <v>36166.059999999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>34624.779999999999</v>
+        <v>34679.379999999997</v>
       </c>
       <c r="AG5" s="1">
-        <v>35206.580000000002</v>
+        <v>35277.970000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>35253.410000000003</v>
+        <v>36166.370000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>34986.68</v>
+        <v>36297.68</v>
       </c>
       <c r="AJ5" s="1">
-        <v>34878.559999999998</v>
+        <v>36225.580000000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>35117.220000000001</v>
+        <v>36114.769999999997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1">
-        <v>8.3000000000000007</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>11.5</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>10.75</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="G6" s="1">
-        <v>10.800000000000001</v>
+        <v>3.7999999999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>10.117000000000001</v>
+        <v>3.6000000000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>10.058</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>9.8170000000000002</v>
+        <v>3.7999999999999998</v>
       </c>
       <c r="K6" s="1">
-        <v>8.8249999999999993</v>
+        <v>2.6760000000000002</v>
       </c>
       <c r="L6" s="1">
-        <v>7.3920000000000003</v>
+        <v>2.3479999999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>6.5499999999999998</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>6.4420000000000002</v>
+        <v>3.1509999999999998</v>
       </c>
       <c r="O6" s="1">
-        <v>7.0919999999999996</v>
+        <v>3.29</v>
       </c>
       <c r="P6" s="1">
-        <v>8.625</v>
+        <v>3.9580000000000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.7579999999999991</v>
+        <v>3.8500000000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>9.6920000000000002</v>
+        <v>3.9169999999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>9.5500000000000007</v>
+        <v>4.3330000000000002</v>
       </c>
       <c r="T6" s="1">
-        <v>9.2249999999999996</v>
+        <v>4.367</v>
       </c>
       <c r="U6" s="1">
-        <v>9.3420000000000005</v>
+        <v>4.4829999999999997</v>
       </c>
       <c r="V6" s="1">
-        <v>8.4420000000000002</v>
+        <v>3.9329999999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>6.9420000000000002</v>
+        <v>3.883</v>
       </c>
       <c r="X6" s="1">
-        <v>6.7080000000000002</v>
+        <v>4.008</v>
       </c>
       <c r="Y6" s="1">
-        <v>7.617</v>
+        <v>4.3920000000000003</v>
       </c>
       <c r="Z6" s="1">
-        <v>8.1750000000000007</v>
+        <v>4.7919999999999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.3249999999999993</v>
+        <v>5.492</v>
       </c>
       <c r="AB6" s="1">
-        <v>8.4079999999999995</v>
+        <v>5.6500000000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>8.2080000000000002</v>
+        <v>5.2249999999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>7.5</v>
+        <v>4.867</v>
       </c>
       <c r="AE6" s="1">
-        <v>7.0919999999999996</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.867</v>
+        <v>5.3079999999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>8.25</v>
+        <v>4.8170000000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>7.2169999999999996</v>
+        <v>4.5670000000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>7.6420000000000003</v>
+        <v>4.9249999999999998</v>
       </c>
       <c r="AJ6" s="1">
-        <v>8.4000000000000004</v>
+        <v>5.3419999999999996</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.4920000000000009</v>
+        <v>5.633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1">
-        <v>9.8550000000000004</v>
+        <v>7.54</v>
       </c>
       <c r="D7" s="1">
-        <v>9.8629999999999995</v>
+        <v>7.556</v>
       </c>
       <c r="E7" s="1">
-        <v>9.8550000000000004</v>
+        <v>7.5650000000000004</v>
       </c>
       <c r="F7" s="1">
-        <v>9.8580000000000005</v>
+        <v>7.5430000000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>9.8529999999999998</v>
+        <v>7.5439999999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>9.8580000000000005</v>
+        <v>7.5490000000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>9.859</v>
+        <v>7.5570000000000004</v>
       </c>
       <c r="J7" s="1">
-        <v>9.8650000000000002</v>
+        <v>7.5670000000000002</v>
       </c>
       <c r="K7" s="1">
-        <v>9.8759999999999994</v>
+        <v>7.5759999999999996</v>
       </c>
       <c r="L7" s="1">
-        <v>9.9280000000000008</v>
+        <v>7.5940000000000003</v>
       </c>
       <c r="M7" s="1">
-        <v>9.9480000000000004</v>
+        <v>7.6449999999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>9.9870000000000001</v>
+        <v>7.7110000000000003</v>
       </c>
       <c r="O7" s="1">
-        <v>10.022</v>
+        <v>7.7990000000000004</v>
       </c>
       <c r="P7" s="1">
-        <v>10.068</v>
+        <v>7.883</v>
       </c>
       <c r="Q7" s="1">
-        <v>10.101000000000001</v>
+        <v>7.9290000000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>10.131</v>
+        <v>7.944</v>
       </c>
       <c r="S7" s="1">
-        <v>10.143000000000001</v>
+        <v>7.9530000000000003</v>
       </c>
       <c r="T7" s="1">
-        <v>10.17</v>
+        <v>7.9649999999999999</v>
       </c>
       <c r="U7" s="1">
-        <v>10.192</v>
+        <v>7.9710000000000001</v>
       </c>
       <c r="V7" s="1">
-        <v>10.214</v>
+        <v>7.9829999999999997</v>
       </c>
       <c r="W7" s="1">
-        <v>10.239000000000001</v>
+        <v>8.0020000000000007</v>
       </c>
       <c r="X7" s="1">
-        <v>10.263</v>
+        <v>8.0210000000000008</v>
       </c>
       <c r="Y7" s="1">
-        <v>10.31</v>
+        <v>8.0640000000000001</v>
       </c>
       <c r="Z7" s="1">
-        <v>10.356</v>
+        <v>8.0999999999999996</v>
       </c>
       <c r="AA7" s="1">
-        <v>10.396000000000001</v>
+        <v>8.1430000000000007</v>
       </c>
       <c r="AB7" s="1">
-        <v>10.446</v>
+        <v>8.2010000000000005</v>
       </c>
       <c r="AC7" s="1">
-        <v>10.510999999999999</v>
+        <v>8.2539999999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>10.585000000000001</v>
+        <v>8.2829999999999995</v>
       </c>
       <c r="AE7" s="1">
-        <v>10.667</v>
+        <v>8.3079999999999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>10.753</v>
+        <v>8.3350000000000009</v>
       </c>
       <c r="AG7" s="1">
-        <v>10.84</v>
+        <v>8.3520000000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>11.000999999999999</v>
+        <v>8.375</v>
       </c>
       <c r="AI7" s="1">
-        <v>11.095000000000001</v>
+        <v>8.4079999999999995</v>
       </c>
       <c r="AJ7" s="1">
-        <v>11.162000000000001</v>
+        <v>8.452</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.204000000000001</v>
+        <v>8.5079999999999991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>8316.4699999999993</v>
+        <v>21885.360000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>8463.7099999999991</v>
+        <v>21805.950000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>8894.9400000000005</v>
+        <v>21955.25</v>
       </c>
       <c r="F8" s="1">
-        <v>9246.2999999999993</v>
+        <v>22016.060000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>9927.9099999999999</v>
+        <v>22570.490000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>10278.01</v>
+        <v>22932.369999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>10521.77</v>
+        <v>23347.599999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>11150.68</v>
+        <v>23871.970000000001</v>
       </c>
       <c r="K8" s="1">
-        <v>11952.790000000001</v>
+        <v>24971.73</v>
       </c>
       <c r="L8" s="1">
-        <v>12732.83</v>
+        <v>25702.98</v>
       </c>
       <c r="M8" s="1">
-        <v>13394.780000000001</v>
+        <v>26455.630000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>13142.26</v>
+        <v>26834.860000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>14003.41</v>
+        <v>27150.400000000001</v>
       </c>
       <c r="P8" s="1">
-        <v>13759.040000000001</v>
+        <v>26765.529999999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>14269.65</v>
+        <v>27540.860000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>15530.25</v>
+        <v>28114.299999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>15545.700000000001</v>
+        <v>28515.299999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>15709.42</v>
+        <v>29503.669999999998</v>
       </c>
       <c r="U8" s="1">
-        <v>16323.030000000001</v>
+        <v>30030.52</v>
       </c>
       <c r="V8" s="1">
-        <v>16899.93</v>
+        <v>31080.939999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>17679.57</v>
+        <v>32104.82</v>
       </c>
       <c r="X8" s="1">
-        <v>18104.040000000001</v>
+        <v>32324.82</v>
       </c>
       <c r="Y8" s="1">
-        <v>18472.470000000001</v>
+        <v>32681.380000000001</v>
       </c>
       <c r="Z8" s="1">
-        <v>18745.889999999999</v>
+        <v>32825.330000000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>19297.139999999999</v>
+        <v>33820.199999999997</v>
       </c>
       <c r="AB8" s="1">
-        <v>19746.369999999999</v>
+        <v>34297.730000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>20259.799999999999</v>
+        <v>34980.459999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>20744.720000000001</v>
+        <v>35780.980000000003</v>
       </c>
       <c r="AE8" s="1">
-        <v>20942.900000000001</v>
+        <v>35843.239999999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>19959.099999999999</v>
+        <v>34624.779999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>19737.91</v>
+        <v>35206.580000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>19279.810000000001</v>
+        <v>35253.410000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>18608.889999999999</v>
+        <v>34986.68</v>
       </c>
       <c r="AJ8" s="1">
-        <v>17418.389999999999</v>
+        <v>34878.559999999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>16843.650000000001</v>
+        <v>35117.220000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
       <c r="E9" s="1">
-        <v>2.7999999999999998</v>
+        <v>11.5</v>
       </c>
       <c r="F9" s="1">
-        <v>3.2999999999999998</v>
+        <v>10.75</v>
       </c>
       <c r="G9" s="1">
-        <v>3.2999999999999998</v>
+        <v>10.800000000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>3.2999999999999998</v>
+        <v>10.117000000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>3.7000000000000002</v>
+        <v>10.058</v>
       </c>
       <c r="J9" s="1">
-        <v>3.3999999999999999</v>
+        <v>9.8170000000000002</v>
       </c>
       <c r="K9" s="1">
-        <v>2.7999999999999998</v>
+        <v>8.8249999999999993</v>
       </c>
       <c r="L9" s="1">
-        <v>2.2999999999999998</v>
+        <v>7.3920000000000003</v>
       </c>
       <c r="M9" s="1">
-        <v>1.8</v>
+        <v>6.5499999999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>3</v>
+        <v>6.4420000000000002</v>
       </c>
       <c r="O9" s="1">
-        <v>1.825</v>
+        <v>7.0919999999999996</v>
       </c>
       <c r="P9" s="1">
-        <v>2.7000000000000002</v>
+        <v>8.625</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.7000000000000002</v>
+        <v>9.7579999999999991</v>
       </c>
       <c r="R9" s="1">
-        <v>2.6000000000000001</v>
+        <v>9.6920000000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>3.1000000000000001</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="T9" s="1">
-        <v>3.3999999999999999</v>
+        <v>9.2249999999999996</v>
       </c>
       <c r="U9" s="1">
-        <v>3.3999999999999999</v>
+        <v>9.3420000000000005</v>
       </c>
       <c r="V9" s="1">
-        <v>3.6000000000000001</v>
+        <v>8.4420000000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>4.8250000000000002</v>
+        <v>6.9420000000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>3.8999999999999999</v>
+        <v>6.7080000000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>3.5169999999999999</v>
+        <v>7.617</v>
       </c>
       <c r="Z9" s="1">
-        <v>4.125</v>
+        <v>8.1750000000000007</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.617</v>
+        <v>8.3249999999999993</v>
       </c>
       <c r="AB9" s="1">
-        <v>5.3330000000000002</v>
+        <v>8.4079999999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>4.5170000000000003</v>
+        <v>8.2080000000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>3.8999999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" s="1">
-        <v>3.6579999999999999</v>
+        <v>7.0919999999999996</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.4080000000000004</v>
+        <v>7.867</v>
       </c>
       <c r="AG9" s="1">
-        <v>6.2670000000000003</v>
+        <v>8.25</v>
       </c>
       <c r="AH9" s="1">
-        <v>7.9169999999999998</v>
+        <v>7.2169999999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>11.875</v>
+        <v>7.6420000000000003</v>
       </c>
       <c r="AJ9" s="1">
-        <v>15.875</v>
+        <v>8.4000000000000004</v>
       </c>
       <c r="AK9" s="1">
-        <v>16.125</v>
+        <v>8.4920000000000009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>0.51700000000000002</v>
+        <v>9.8550000000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>0.52400000000000002</v>
+        <v>9.8629999999999995</v>
       </c>
       <c r="E10" s="1">
-        <v>0.53000000000000003</v>
+        <v>9.8550000000000004</v>
       </c>
       <c r="F10" s="1">
-        <v>0.53700000000000003</v>
+        <v>9.8580000000000005</v>
       </c>
       <c r="G10" s="1">
-        <v>0.54400000000000004</v>
+        <v>9.8529999999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>0.55000000000000004</v>
+        <v>9.8580000000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>0.55700000000000005</v>
+        <v>9.859</v>
       </c>
       <c r="J10" s="1">
-        <v>0.56299999999999994</v>
+        <v>9.8650000000000002</v>
       </c>
       <c r="K10" s="1">
-        <v>0.56899999999999995</v>
+        <v>9.8759999999999994</v>
       </c>
       <c r="L10" s="1">
-        <v>0.57699999999999996</v>
+        <v>9.9280000000000008</v>
       </c>
       <c r="M10" s="1">
-        <v>0.58899999999999997</v>
+        <v>9.9480000000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>0.60499999999999998</v>
+        <v>9.9870000000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.621</v>
+        <v>10.022</v>
       </c>
       <c r="P10" s="1">
-        <v>0.63600000000000001</v>
+        <v>10.068</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.65000000000000002</v>
+        <v>10.101000000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>0.65600000000000003</v>
+        <v>10.131</v>
       </c>
       <c r="S10" s="1">
-        <v>0.66600000000000004</v>
+        <v>10.143000000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.67500000000000004</v>
+        <v>10.17</v>
       </c>
       <c r="U10" s="1">
-        <v>0.68300000000000005</v>
+        <v>10.192</v>
       </c>
       <c r="V10" s="1">
-        <v>0.69099999999999995</v>
+        <v>10.214</v>
       </c>
       <c r="W10" s="1">
-        <v>0.69799999999999995</v>
+        <v>10.239000000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>0.70599999999999996</v>
+        <v>10.263</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.71399999999999997</v>
+        <v>10.31</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.72299999999999998</v>
+        <v>10.356</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.73299999999999998</v>
+        <v>10.396000000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.74399999999999999</v>
+        <v>10.446</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.75800000000000001</v>
+        <v>10.510999999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.77600000000000002</v>
+        <v>10.585000000000001</v>
       </c>
       <c r="AE10" s="1">
-        <v>0.79700000000000004</v>
+        <v>10.667</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.81899999999999995</v>
+        <v>10.753</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.83999999999999997</v>
+        <v>10.84</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.86199999999999999</v>
+        <v>11.000999999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.872</v>
+        <v>11.095000000000001</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0.88100000000000001</v>
+        <v>11.162000000000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.89100000000000001</v>
+        <v>11.204000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>-99</v>
+        <v>8316.4699999999993</v>
       </c>
       <c r="D11" s="1">
-        <v>-99</v>
+        <v>8463.7099999999991</v>
       </c>
       <c r="E11" s="1">
-        <v>-99</v>
+        <v>8894.9400000000005</v>
       </c>
       <c r="F11" s="1">
-        <v>-99</v>
+        <v>9246.2999999999993</v>
       </c>
       <c r="G11" s="1">
-        <v>-99</v>
+        <v>9927.9099999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>-99</v>
+        <v>10278.01</v>
       </c>
       <c r="I11" s="1">
-        <v>-99</v>
+        <v>10521.77</v>
       </c>
       <c r="J11" s="1">
-        <v>-99</v>
+        <v>11150.68</v>
       </c>
       <c r="K11" s="1">
-        <v>-99</v>
+        <v>11952.790000000001</v>
       </c>
       <c r="L11" s="1">
-        <v>-99</v>
+        <v>12732.83</v>
       </c>
       <c r="M11" s="1">
-        <v>-99</v>
+        <v>13394.780000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-99</v>
+        <v>13142.26</v>
       </c>
       <c r="O11" s="1">
-        <v>-99</v>
+        <v>14003.41</v>
       </c>
       <c r="P11" s="1">
-        <v>5214.7200000000003</v>
+        <v>13759.040000000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>5248.3599999999997</v>
+        <v>14269.65</v>
       </c>
       <c r="R11" s="1">
-        <v>5468.3999999999996</v>
+        <v>15530.25</v>
       </c>
       <c r="S11" s="1">
-        <v>5852.0100000000002</v>
+        <v>15545.700000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>6631.79</v>
+        <v>15709.42</v>
       </c>
       <c r="U11" s="1">
-        <v>6968.8800000000001</v>
+        <v>16323.030000000001</v>
       </c>
       <c r="V11" s="1">
-        <v>6978.5100000000002</v>
+        <v>16899.93</v>
       </c>
       <c r="W11" s="1">
-        <v>7756.3100000000004</v>
+        <v>17679.57</v>
       </c>
       <c r="X11" s="1">
-        <v>8278.0200000000004</v>
+        <v>18104.040000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>8817.9099999999999</v>
+        <v>18472.470000000001</v>
       </c>
       <c r="Z11" s="1">
-        <v>9508.1599999999999</v>
+        <v>18745.889999999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>10143.889999999999</v>
+        <v>19297.139999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>11124.059999999999</v>
+        <v>19746.369999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>12292.49</v>
+        <v>20259.799999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>13267.379999999999</v>
+        <v>20744.720000000001</v>
       </c>
       <c r="AE11" s="1">
-        <v>12562.15</v>
+        <v>20942.900000000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>10716.610000000001</v>
+        <v>19959.099999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>10982.889999999999</v>
+        <v>19737.91</v>
       </c>
       <c r="AH11" s="1">
-        <v>11815.15</v>
+        <v>19279.810000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>12866.290000000001</v>
+        <v>18608.889999999999</v>
       </c>
       <c r="AJ11" s="1">
-        <v>13149.34</v>
+        <v>17418.389999999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>13194.26</v>
+        <v>16843.650000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1">
-        <v>-99</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-99</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <v>-99</v>
+        <v>2.7999999999999998</v>
       </c>
       <c r="F12" s="1">
-        <v>-99</v>
+        <v>3.2999999999999998</v>
       </c>
       <c r="G12" s="1">
-        <v>-99</v>
+        <v>3.2999999999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>-99</v>
+        <v>3.2999999999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-99</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>-99</v>
+        <v>3.3999999999999999</v>
       </c>
       <c r="K12" s="1">
-        <v>-99</v>
+        <v>2.7999999999999998</v>
       </c>
       <c r="L12" s="1">
-        <v>-99</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>-99</v>
+        <v>1.8</v>
       </c>
       <c r="N12" s="1">
-        <v>-99</v>
+        <v>3</v>
       </c>
       <c r="O12" s="1">
-        <v>-99</v>
+        <v>1.825</v>
       </c>
       <c r="P12" s="1">
-        <v>6.5259999999999998</v>
+        <v>2.7000000000000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.5460000000000003</v>
+        <v>2.7000000000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>9.6449999999999996</v>
+        <v>2.6000000000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>9.8810000000000002</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>9.6340000000000003</v>
+        <v>3.3999999999999999</v>
       </c>
       <c r="U12" s="1">
-        <v>9.8309999999999995</v>
+        <v>3.3999999999999999</v>
       </c>
       <c r="V12" s="1">
-        <v>12.201000000000001</v>
+        <v>3.6000000000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>14.602</v>
+        <v>4.8250000000000002</v>
       </c>
       <c r="X12" s="1">
-        <v>13.009</v>
+        <v>3.8999999999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>11.227</v>
+        <v>3.5169999999999999</v>
       </c>
       <c r="Z12" s="1">
-        <v>10.342000000000001</v>
+        <v>4.125</v>
       </c>
       <c r="AA12" s="1">
-        <v>10.140000000000001</v>
+        <v>4.617</v>
       </c>
       <c r="AB12" s="1">
-        <v>8.0310000000000006</v>
+        <v>5.3330000000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>5.9119999999999999</v>
+        <v>4.5170000000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>4.5919999999999996</v>
+        <v>3.8999999999999999</v>
       </c>
       <c r="AE12" s="1">
-        <v>5.4550000000000001</v>
+        <v>3.6579999999999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>13.548999999999999</v>
+        <v>5.4080000000000004</v>
       </c>
       <c r="AG12" s="1">
-        <v>16.707000000000001</v>
+        <v>6.2670000000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>12.324999999999999</v>
+        <v>7.9169999999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>10.023</v>
+        <v>11.875</v>
       </c>
       <c r="AJ12" s="1">
-        <v>8.6280000000000001</v>
+        <v>15.875</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.351</v>
+        <v>16.125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1">
-        <v>-99</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-99</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>-99</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F13" s="1">
-        <v>-99</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="G13" s="1">
-        <v>-99</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="H13" s="1">
-        <v>-99</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>-99</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="J13" s="1">
-        <v>-99</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="K13" s="1">
-        <v>-99</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="L13" s="1">
-        <v>-99</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="M13" s="1">
-        <v>-99</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-99</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="O13" s="1">
-        <v>-99</v>
+        <v>0.621</v>
       </c>
       <c r="P13" s="1">
-        <v>1.5109999999999999</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.4770000000000001</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1.448</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>1.425</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="T13" s="1">
-        <v>1.4059999999999999</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="U13" s="1">
-        <v>1.393</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="V13" s="1">
-        <v>1.379</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="W13" s="1">
-        <v>1.3720000000000001</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>1.367</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>1.361</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="Z13" s="1">
-        <v>1.3560000000000001</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.351</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1.3480000000000001</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>1.345</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>1.3420000000000001</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="AE13" s="1">
-        <v>1.341</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.3400000000000001</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="AG13" s="1">
-        <v>1.3400000000000001</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>1.3400000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>1.294</v>
+        <v>0.872</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1.286</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>1.319</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>19921.860000000001</v>
+        <v>-99</v>
       </c>
       <c r="D14" s="1">
-        <v>20105.360000000001</v>
+        <v>-99</v>
       </c>
       <c r="E14" s="1">
-        <v>20608.669999999998</v>
+        <v>-99</v>
       </c>
       <c r="F14" s="1">
-        <v>21086.740000000002</v>
+        <v>-99</v>
       </c>
       <c r="G14" s="1">
-        <v>21602.889999999999</v>
+        <v>-99</v>
       </c>
       <c r="H14" s="1">
-        <v>22202.610000000001</v>
+        <v>-99</v>
       </c>
       <c r="I14" s="1">
-        <v>22707.52</v>
+        <v>-99</v>
       </c>
       <c r="J14" s="1">
-        <v>23443.639999999999</v>
+        <v>-99</v>
       </c>
       <c r="K14" s="1">
-        <v>24574.970000000001</v>
+        <v>-99</v>
       </c>
       <c r="L14" s="1">
-        <v>25823.32</v>
+        <v>-99</v>
       </c>
       <c r="M14" s="1">
-        <v>25366.759999999998</v>
+        <v>-99</v>
       </c>
       <c r="N14" s="1">
-        <v>23751.029999999999</v>
+        <v>-99</v>
       </c>
       <c r="O14" s="1">
-        <v>22822.02</v>
+        <v>-99</v>
       </c>
       <c r="P14" s="1">
-        <v>22537.959999999999</v>
+        <v>5214.7200000000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>23320.220000000001</v>
+        <v>5248.3599999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>24201.799999999999</v>
+        <v>5468.3999999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>24998.509999999998</v>
+        <v>5852.0100000000002</v>
       </c>
       <c r="T14" s="1">
-        <v>26481.400000000001</v>
+        <v>6631.79</v>
       </c>
       <c r="U14" s="1">
-        <v>27837.240000000002</v>
+        <v>6968.8800000000001</v>
       </c>
       <c r="V14" s="1">
-        <v>29005.09</v>
+        <v>6978.5100000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>30570.439999999999</v>
+        <v>7756.3100000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>31300.209999999999</v>
+        <v>8278.0200000000004</v>
       </c>
       <c r="Y14" s="1">
-        <v>31741.700000000001</v>
+        <v>8817.9099999999999</v>
       </c>
       <c r="Z14" s="1">
-        <v>32303.779999999999</v>
+        <v>9508.1599999999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>33485.629999999997</v>
+        <v>10143.889999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>34305.779999999999</v>
+        <v>11124.059999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>35567.910000000003</v>
+        <v>12292.49</v>
       </c>
       <c r="AD14" s="1">
-        <v>37260.690000000002</v>
+        <v>13267.379999999999</v>
       </c>
       <c r="AE14" s="1">
-        <v>37362.629999999997</v>
+        <v>12562.15</v>
       </c>
       <c r="AF14" s="1">
-        <v>34106.889999999999</v>
+        <v>10716.610000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>34962.639999999999</v>
+        <v>10982.889999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>35702.349999999999</v>
+        <v>11815.15</v>
       </c>
       <c r="AI14" s="1">
-        <v>35023.82</v>
+        <v>12866.290000000001</v>
       </c>
       <c r="AJ14" s="1">
-        <v>34469</v>
+        <v>13149.34</v>
       </c>
       <c r="AK14" s="1">
-        <v>34174.610000000001</v>
+        <v>13194.26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1">
-        <v>5.2880000000000003</v>
+        <v>-99</v>
       </c>
       <c r="D15" s="1">
-        <v>5.7430000000000003</v>
+        <v>-99</v>
       </c>
       <c r="E15" s="1">
-        <v>6.0759999999999996</v>
+        <v>-99</v>
       </c>
       <c r="F15" s="1">
-        <v>6.1470000000000002</v>
+        <v>-99</v>
       </c>
       <c r="G15" s="1">
-        <v>5.9279999999999999</v>
+        <v>-99</v>
       </c>
       <c r="H15" s="1">
-        <v>6.0490000000000004</v>
+        <v>-99</v>
       </c>
       <c r="I15" s="1">
-        <v>6.665</v>
+        <v>-99</v>
       </c>
       <c r="J15" s="1">
-        <v>4.9000000000000004</v>
+        <v>-99</v>
       </c>
       <c r="K15" s="1">
-        <v>4.2080000000000002</v>
+        <v>-99</v>
       </c>
       <c r="L15" s="1">
-        <v>3.1080000000000001</v>
+        <v>-99</v>
       </c>
       <c r="M15" s="1">
-        <v>3.1669999999999998</v>
+        <v>-99</v>
       </c>
       <c r="N15" s="1">
-        <v>6.6079999999999997</v>
+        <v>-99</v>
       </c>
       <c r="O15" s="1">
-        <v>11.708</v>
+        <v>-99</v>
       </c>
       <c r="P15" s="1">
-        <v>16.341999999999999</v>
+        <v>6.5259999999999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.582999999999998</v>
+        <v>7.5460000000000003</v>
       </c>
       <c r="R15" s="1">
-        <v>15.4</v>
+        <v>9.6449999999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>14.567</v>
+        <v>9.8810000000000002</v>
       </c>
       <c r="T15" s="1">
-        <v>12.641999999999999</v>
+        <v>9.6340000000000003</v>
       </c>
       <c r="U15" s="1">
-        <v>11.358000000000001</v>
+        <v>9.8309999999999995</v>
       </c>
       <c r="V15" s="1">
-        <v>10.217000000000001</v>
+        <v>12.201000000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>9.7829999999999995</v>
+        <v>14.602</v>
       </c>
       <c r="X15" s="1">
-        <v>9.125</v>
+        <v>13.009</v>
       </c>
       <c r="Y15" s="1">
-        <v>9.0749999999999993</v>
+        <v>11.227</v>
       </c>
       <c r="Z15" s="1">
-        <v>9.0079999999999991</v>
+        <v>10.342000000000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.8249999999999993</v>
+        <v>10.140000000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>8.4000000000000004</v>
+        <v>8.0310000000000006</v>
       </c>
       <c r="AC15" s="1">
-        <v>7.7169999999999996</v>
+        <v>5.9119999999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>6.867</v>
+        <v>4.5919999999999996</v>
       </c>
       <c r="AE15" s="1">
-        <v>6.367</v>
+        <v>5.4550000000000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.2420000000000009</v>
+        <v>13.548999999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>8.3829999999999991</v>
+        <v>16.707000000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>7.7750000000000004</v>
+        <v>12.324999999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>7.7249999999999996</v>
+        <v>10.023</v>
       </c>
       <c r="AJ15" s="1">
-        <v>8.1419999999999995</v>
+        <v>8.6280000000000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.6829999999999998</v>
+        <v>7.351</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="1">
-        <v>4.7709999999999999</v>
+        <v>-99</v>
       </c>
       <c r="D16" s="1">
-        <v>4.7880000000000003</v>
+        <v>-99</v>
       </c>
       <c r="E16" s="1">
-        <v>4.8120000000000003</v>
+        <v>-99</v>
       </c>
       <c r="F16" s="1">
-        <v>4.8419999999999996</v>
+        <v>-99</v>
       </c>
       <c r="G16" s="1">
-        <v>4.8700000000000001</v>
+        <v>-99</v>
       </c>
       <c r="H16" s="1">
-        <v>4.8940000000000001</v>
+        <v>-99</v>
       </c>
       <c r="I16" s="1">
-        <v>4.9109999999999996</v>
+        <v>-99</v>
       </c>
       <c r="J16" s="1">
-        <v>4.9260000000000002</v>
+        <v>-99</v>
       </c>
       <c r="K16" s="1">
-        <v>4.9390000000000001</v>
+        <v>-99</v>
       </c>
       <c r="L16" s="1">
-        <v>4.9539999999999997</v>
+        <v>-99</v>
       </c>
       <c r="M16" s="1">
-        <v>4.9740000000000002</v>
+        <v>-99</v>
       </c>
       <c r="N16" s="1">
-        <v>4.9980000000000002</v>
+        <v>-99</v>
       </c>
       <c r="O16" s="1">
-        <v>5.0289999999999999</v>
+        <v>-99</v>
       </c>
       <c r="P16" s="1">
-        <v>5.0549999999999997</v>
+        <v>1.5109999999999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.0780000000000003</v>
+        <v>1.4770000000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>5.0990000000000002</v>
+        <v>1.448</v>
       </c>
       <c r="S16" s="1">
-        <v>5.117</v>
+        <v>1.425</v>
       </c>
       <c r="T16" s="1">
-        <v>5.1319999999999997</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="U16" s="1">
-        <v>5.1470000000000002</v>
+        <v>1.393</v>
       </c>
       <c r="V16" s="1">
-        <v>5.1600000000000001</v>
+        <v>1.379</v>
       </c>
       <c r="W16" s="1">
-        <v>5.1710000000000003</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>5.181</v>
+        <v>1.367</v>
       </c>
       <c r="Y16" s="1">
-        <v>5.1950000000000003</v>
+        <v>1.361</v>
       </c>
       <c r="Z16" s="1">
-        <v>5.2060000000000004</v>
+        <v>1.3560000000000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.2199999999999998</v>
+        <v>1.351</v>
       </c>
       <c r="AB16" s="1">
-        <v>5.2370000000000001</v>
+        <v>1.3480000000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>5.2560000000000002</v>
+        <v>1.345</v>
       </c>
       <c r="AD16" s="1">
-        <v>5.2770000000000001</v>
+        <v>1.3420000000000001</v>
       </c>
       <c r="AE16" s="1">
-        <v>5.2999999999999998</v>
+        <v>1.341</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.3259999999999996</v>
+        <v>1.3400000000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>5.351</v>
+        <v>1.3400000000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>5.375</v>
+        <v>1.3400000000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>5.4009999999999998</v>
+        <v>1.294</v>
       </c>
       <c r="AJ16" s="1">
-        <v>5.4269999999999996</v>
+        <v>1.286</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.4509999999999996</v>
+        <v>1.319</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>20967.48</v>
+        <v>19921.860000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>21076.860000000001</v>
+        <v>20105.360000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>21483.759999999998</v>
+        <v>20608.669999999998</v>
       </c>
       <c r="F17" s="1">
-        <v>21628.279999999999</v>
+        <v>21086.740000000002</v>
       </c>
       <c r="G17" s="1">
-        <v>21860.049999999999</v>
+        <v>21602.889999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>22109.189999999999</v>
+        <v>22202.610000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>22525.32</v>
+        <v>22707.52</v>
       </c>
       <c r="J17" s="1">
-        <v>22993.610000000001</v>
+        <v>23443.639999999999</v>
       </c>
       <c r="K17" s="1">
-        <v>23959.75</v>
+        <v>24574.970000000001</v>
       </c>
       <c r="L17" s="1">
-        <v>24867.849999999999</v>
+        <v>25823.32</v>
       </c>
       <c r="M17" s="1">
-        <v>25453.540000000001</v>
+        <v>25366.759999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>25598.740000000002</v>
+        <v>23751.029999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>25885.330000000002</v>
+        <v>22822.02</v>
       </c>
       <c r="P17" s="1">
-        <v>25610.759999999998</v>
+        <v>22537.959999999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>26122.259999999998</v>
+        <v>23320.220000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>26580.34</v>
+        <v>24201.799999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>26863.959999999999</v>
+        <v>24998.509999999998</v>
       </c>
       <c r="T17" s="1">
-        <v>27406.68</v>
+        <v>26481.400000000001</v>
       </c>
       <c r="U17" s="1">
-        <v>28292.25</v>
+        <v>27837.240000000002</v>
       </c>
       <c r="V17" s="1">
-        <v>29157.349999999999</v>
+        <v>29005.09</v>
       </c>
       <c r="W17" s="1">
-        <v>30101.18</v>
+        <v>30570.439999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>30478.02</v>
+        <v>31300.209999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>30602.389999999999</v>
+        <v>31741.700000000001</v>
       </c>
       <c r="Z17" s="1">
-        <v>30639.66</v>
+        <v>32303.779999999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>31283.349999999999</v>
+        <v>33485.629999999997</v>
       </c>
       <c r="AB17" s="1">
-        <v>31547.57</v>
+        <v>34305.779999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>32067.220000000001</v>
+        <v>35567.910000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>32614.41</v>
+        <v>37260.690000000002</v>
       </c>
       <c r="AE17" s="1">
-        <v>32499.48</v>
+        <v>37362.629999999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>31376.5</v>
+        <v>34106.889999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>31840.57</v>
+        <v>34962.639999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>32345.380000000001</v>
+        <v>35702.349999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>32248.200000000001</v>
+        <v>35023.82</v>
       </c>
       <c r="AJ17" s="1">
-        <v>32319.119999999999</v>
+        <v>34469</v>
       </c>
       <c r="AK17" s="1">
-        <v>32241.299999999999</v>
+        <v>34174.610000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="1">
-        <v>6.3490000000000002</v>
+        <v>5.2880000000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>7.4379999999999997</v>
+        <v>5.7430000000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>8.0690000000000008</v>
+        <v>6.0759999999999996</v>
       </c>
       <c r="F18" s="1">
-        <v>7.383</v>
+        <v>6.1470000000000002</v>
       </c>
       <c r="G18" s="1">
-        <v>8.4580000000000002</v>
+        <v>5.9279999999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>8.6999999999999993</v>
+        <v>6.0490000000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>8.875</v>
+        <v>6.665</v>
       </c>
       <c r="J18" s="1">
-        <v>9.1500000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K18" s="1">
-        <v>8.8420000000000005</v>
+        <v>4.2080000000000002</v>
       </c>
       <c r="L18" s="1">
-        <v>8.6999999999999993</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="M18" s="1">
+        <v>3.1669999999999998</v>
+      </c>
+      <c r="N18" s="1">
+        <v>6.6079999999999997</v>
+      </c>
+      <c r="O18" s="1">
+        <v>11.708</v>
+      </c>
+      <c r="P18" s="1">
+        <v>16.341999999999999</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>16.582999999999998</v>
+      </c>
+      <c r="R18" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="S18" s="1">
+        <v>14.567</v>
+      </c>
+      <c r="T18" s="1">
+        <v>12.641999999999999</v>
+      </c>
+      <c r="U18" s="1">
+        <v>11.358000000000001</v>
+      </c>
+      <c r="V18" s="1">
+        <v>10.217000000000001</v>
+      </c>
+      <c r="W18" s="1">
+        <v>9.7829999999999995</v>
+      </c>
+      <c r="X18" s="1">
+        <v>9.125</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>9.0749999999999993</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>9.0079999999999991</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>8.8249999999999993</v>
+      </c>
+      <c r="AB18" s="1">
         <v>8.4000000000000004</v>
       </c>
-      <c r="N18" s="1">
-        <v>8.6170000000000009</v>
-      </c>
-      <c r="O18" s="1">
-        <v>9.4420000000000002</v>
-      </c>
-      <c r="P18" s="1">
-        <v>10.266999999999999</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>10.667</v>
-      </c>
-      <c r="R18" s="1">
-        <v>10.507999999999999</v>
-      </c>
-      <c r="S18" s="1">
-        <v>10.833</v>
-      </c>
-      <c r="T18" s="1">
-        <v>10.891999999999999</v>
-      </c>
-      <c r="U18" s="1">
-        <v>10.692</v>
-      </c>
-      <c r="V18" s="1">
-        <v>10.442</v>
-      </c>
-      <c r="W18" s="1">
-        <v>9.1750000000000007</v>
-      </c>
-      <c r="X18" s="1">
-        <v>8.4580000000000002</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>8.2750000000000004</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>8.5169999999999995</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>8.8670000000000009</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>8.8670000000000009</v>
-      </c>
       <c r="AC18" s="1">
-        <v>8.8170000000000002</v>
+        <v>7.7169999999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>8.0079999999999991</v>
+        <v>6.867</v>
       </c>
       <c r="AE18" s="1">
-        <v>7.4169999999999998</v>
+        <v>6.367</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.1080000000000005</v>
+        <v>8.2420000000000009</v>
       </c>
       <c r="AG18" s="1">
-        <v>9.2579999999999991</v>
+        <v>8.3829999999999991</v>
       </c>
       <c r="AH18" s="1">
-        <v>9.1419999999999995</v>
+        <v>7.7750000000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>9.7420000000000009</v>
+        <v>7.7249999999999996</v>
       </c>
       <c r="AJ18" s="1">
-        <v>10.266999999999999</v>
+        <v>8.1419999999999995</v>
       </c>
       <c r="AK18" s="1">
-        <v>10.308</v>
+        <v>8.6829999999999998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>53.731000000000002</v>
+        <v>4.7709999999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>54.029000000000003</v>
+        <v>4.7880000000000003</v>
       </c>
       <c r="E19" s="1">
-        <v>54.335000000000001</v>
+        <v>4.8120000000000003</v>
       </c>
       <c r="F19" s="1">
-        <v>54.649999999999999</v>
+        <v>4.8419999999999996</v>
       </c>
       <c r="G19" s="1">
-        <v>54.895000000000003</v>
+        <v>4.8700000000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>55.156999999999996</v>
+        <v>4.8940000000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>55.411000000000001</v>
+        <v>4.9109999999999996</v>
       </c>
       <c r="J19" s="1">
-        <v>55.682000000000002</v>
+        <v>4.9260000000000002</v>
       </c>
       <c r="K19" s="1">
-        <v>55.966000000000001</v>
+        <v>4.9390000000000001</v>
       </c>
       <c r="L19" s="1">
-        <v>56.270000000000003</v>
+        <v>4.9539999999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>56.576999999999998</v>
+        <v>4.9740000000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>56.841000000000001</v>
+        <v>4.9980000000000002</v>
       </c>
       <c r="O19" s="1">
-        <v>57.110999999999997</v>
+        <v>5.0289999999999999</v>
       </c>
       <c r="P19" s="1">
-        <v>57.369</v>
+        <v>5.0549999999999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>57.564999999999998</v>
+        <v>5.0780000000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>57.753</v>
+        <v>5.0990000000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>57.936</v>
+        <v>5.117</v>
       </c>
       <c r="T19" s="1">
-        <v>58.116</v>
+        <v>5.1319999999999997</v>
       </c>
       <c r="U19" s="1">
-        <v>58.298999999999999</v>
+        <v>5.1470000000000002</v>
       </c>
       <c r="V19" s="1">
-        <v>58.497</v>
+        <v>5.1600000000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>58.857999999999997</v>
+        <v>5.1710000000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>59.267000000000003</v>
+        <v>5.181</v>
       </c>
       <c r="Y19" s="1">
-        <v>59.686</v>
+        <v>5.1950000000000003</v>
       </c>
       <c r="Z19" s="1">
-        <v>60.101999999999997</v>
+        <v>5.2060000000000004</v>
       </c>
       <c r="AA19" s="1">
-        <v>60.505000000000003</v>
+        <v>5.2199999999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>60.963000000000001</v>
+        <v>5.2370000000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>61.399999999999999</v>
+        <v>5.2560000000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>61.795000000000002</v>
+        <v>5.2770000000000001</v>
       </c>
       <c r="AE19" s="1">
-        <v>62.134999999999998</v>
+        <v>5.2999999999999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>62.466000000000001</v>
+        <v>5.3259999999999996</v>
       </c>
       <c r="AG19" s="1">
-        <v>62.765000000000001</v>
+        <v>5.351</v>
       </c>
       <c r="AH19" s="1">
-        <v>63.07</v>
+        <v>5.375</v>
       </c>
       <c r="AI19" s="1">
-        <v>63.375999999999998</v>
+        <v>5.4009999999999998</v>
       </c>
       <c r="AJ19" s="1">
-        <v>63.652000000000001</v>
+        <v>5.4269999999999996</v>
       </c>
       <c r="AK19" s="1">
-        <v>63.920000000000002</v>
+        <v>5.4509999999999996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>20067.060000000001</v>
+        <v>20967.48</v>
       </c>
       <c r="D20" s="1">
-        <v>20051.41</v>
+        <v>21076.860000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>19907.580000000002</v>
+        <v>21483.759999999998</v>
       </c>
       <c r="F20" s="1">
-        <v>20287.830000000002</v>
+        <v>21628.279999999999</v>
       </c>
       <c r="G20" s="1">
-        <v>20945.77</v>
+        <v>21860.049999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>21457.91</v>
+        <v>22109.189999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>21961.509999999998</v>
+        <v>22525.32</v>
       </c>
       <c r="J20" s="1">
-        <v>22280.18</v>
+        <v>22993.610000000001</v>
       </c>
       <c r="K20" s="1">
-        <v>22972.57</v>
+        <v>23959.75</v>
       </c>
       <c r="L20" s="1">
-        <v>23635.32</v>
+        <v>24867.849999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>24517.98</v>
+        <v>25453.540000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>25416.77</v>
+        <v>25598.740000000002</v>
       </c>
       <c r="O20" s="1">
-        <v>25576.900000000001</v>
+        <v>25885.330000000002</v>
       </c>
       <c r="P20" s="1">
-        <v>25213.279999999999</v>
+        <v>25610.759999999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>25786.93</v>
+        <v>26122.259999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>26165.43</v>
+        <v>26580.34</v>
       </c>
       <c r="S20" s="1">
-        <v>26327.68</v>
+        <v>26863.959999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>26813.549999999999</v>
+        <v>27406.68</v>
       </c>
       <c r="U20" s="1">
-        <v>27296.580000000002</v>
+        <v>28292.25</v>
       </c>
       <c r="V20" s="1">
-        <v>27757.470000000001</v>
+        <v>29157.349999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>28610.66</v>
+        <v>30101.18</v>
       </c>
       <c r="X20" s="1">
-        <v>29074.130000000001</v>
+        <v>30478.02</v>
       </c>
       <c r="Y20" s="1">
-        <v>29044.91</v>
+        <v>30602.389999999999</v>
       </c>
       <c r="Z20" s="1">
-        <v>28833.66</v>
+        <v>30639.66</v>
       </c>
       <c r="AA20" s="1">
-        <v>29047.34</v>
+        <v>31283.349999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>29324.709999999999</v>
+        <v>31547.57</v>
       </c>
       <c r="AC20" s="1">
-        <v>30507.84</v>
+        <v>32067.220000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>31577.209999999999</v>
+        <v>32614.41</v>
       </c>
       <c r="AE20" s="1">
-        <v>31915.18</v>
+        <v>32499.48</v>
       </c>
       <c r="AF20" s="1">
-        <v>30212.740000000002</v>
+        <v>31376.5</v>
       </c>
       <c r="AG20" s="1">
-        <v>31424.220000000001</v>
+        <v>31840.57</v>
       </c>
       <c r="AH20" s="1">
-        <v>33170.169999999998</v>
+        <v>32345.380000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>33292.419999999998</v>
+        <v>32248.200000000001</v>
       </c>
       <c r="AJ20" s="1">
-        <v>33326.790000000001</v>
+        <v>32319.119999999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>33714.669999999998</v>
+        <v>32241.299999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1">
-        <v>3.359</v>
+        <v>6.3490000000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>4.8310000000000004</v>
+        <v>7.4379999999999997</v>
       </c>
       <c r="E21" s="1">
-        <v>6.734</v>
+        <v>8.0690000000000008</v>
       </c>
       <c r="F21" s="1">
-        <v>8.0990000000000002</v>
+        <v>7.383</v>
       </c>
       <c r="G21" s="1">
-        <v>8.0579999999999998</v>
+        <v>8.4580000000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>8.1240000000000006</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I21" s="1">
-        <v>7.8339999999999996</v>
+        <v>8.875</v>
       </c>
       <c r="J21" s="1">
-        <v>7.843</v>
+        <v>9.1500000000000004</v>
       </c>
       <c r="K21" s="1">
-        <v>7.7350000000000003</v>
+        <v>8.8420000000000005</v>
       </c>
       <c r="L21" s="1">
-        <v>6.79</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M21" s="1">
-        <v>6.1550000000000002</v>
+        <v>8.4000000000000004</v>
       </c>
       <c r="N21" s="1">
-        <v>5.4699999999999998</v>
+        <v>8.6170000000000009</v>
       </c>
       <c r="O21" s="1">
-        <v>6.5919999999999996</v>
+        <v>9.4420000000000002</v>
       </c>
       <c r="P21" s="1">
-        <v>7.7750000000000004</v>
+        <v>10.266999999999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.4250000000000007</v>
+        <v>10.667</v>
       </c>
       <c r="R21" s="1">
-        <v>8.2330000000000005</v>
+        <v>10.507999999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>8.9079999999999995</v>
+        <v>10.833</v>
       </c>
       <c r="T21" s="1">
-        <v>9.6579999999999995</v>
+        <v>10.891999999999999</v>
       </c>
       <c r="U21" s="1">
-        <v>9.3829999999999991</v>
+        <v>10.692</v>
       </c>
       <c r="V21" s="1">
-        <v>8.5579999999999998</v>
+        <v>10.442</v>
       </c>
       <c r="W21" s="1">
-        <v>7.9500000000000002</v>
+        <v>9.1750000000000007</v>
       </c>
       <c r="X21" s="1">
-        <v>7.7999999999999998</v>
+        <v>8.4580000000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>8.5999999999999996</v>
+        <v>8.2750000000000004</v>
       </c>
       <c r="Z21" s="1">
-        <v>9.7080000000000002</v>
+        <v>8.5169999999999995</v>
       </c>
       <c r="AA21" s="1">
-        <v>10.333</v>
+        <v>8.8670000000000009</v>
       </c>
       <c r="AB21" s="1">
-        <v>11</v>
+        <v>8.8670000000000009</v>
       </c>
       <c r="AC21" s="1">
-        <v>10.042</v>
+        <v>8.8170000000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>8.5749999999999993</v>
+        <v>8.0079999999999991</v>
       </c>
       <c r="AE21" s="1">
-        <v>7.4080000000000004</v>
+        <v>7.4169999999999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.6749999999999998</v>
+        <v>9.1080000000000005</v>
       </c>
       <c r="AG21" s="1">
-        <v>6.9580000000000002</v>
+        <v>9.2579999999999991</v>
       </c>
       <c r="AH21" s="1">
-        <v>5.8579999999999997</v>
+        <v>9.1419999999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>5.367</v>
+        <v>9.7420000000000009</v>
       </c>
       <c r="AJ21" s="1">
-        <v>5.242</v>
+        <v>10.266999999999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>5</v>
+        <v>10.308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>77.132000000000005</v>
+        <v>53.731000000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>77.278000000000006</v>
+        <v>54.029000000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>77.222999999999999</v>
+        <v>54.335000000000001</v>
       </c>
       <c r="F22" s="1">
-        <v>76.953000000000003</v>
+        <v>54.649999999999999</v>
       </c>
       <c r="G22" s="1">
-        <v>76.643000000000001</v>
+        <v>54.895000000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>76.453000000000003</v>
+        <v>55.156999999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>76.506</v>
+        <v>55.411000000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>76.519999999999996</v>
+        <v>55.682000000000002</v>
       </c>
       <c r="K22" s="1">
-        <v>76.986000000000004</v>
+        <v>55.966000000000001</v>
       </c>
       <c r="L22" s="1">
-        <v>77.754999999999995</v>
+        <v>56.270000000000003</v>
       </c>
       <c r="M22" s="1">
-        <v>79.245999999999995</v>
+        <v>56.576999999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>80.275000000000006</v>
+        <v>56.841000000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>80.974999999999994</v>
+        <v>57.110999999999997</v>
       </c>
       <c r="P22" s="1">
-        <v>81.337999999999994</v>
+        <v>57.369</v>
       </c>
       <c r="Q22" s="1">
-        <v>81.539000000000001</v>
+        <v>57.564999999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>81.816999999999993</v>
+        <v>57.753</v>
       </c>
       <c r="S22" s="1">
-        <v>82.012</v>
+        <v>57.936</v>
       </c>
       <c r="T22" s="1">
-        <v>82.057000000000002</v>
+        <v>58.116</v>
       </c>
       <c r="U22" s="1">
-        <v>82.037000000000006</v>
+        <v>58.298999999999999</v>
       </c>
       <c r="V22" s="1">
-        <v>82.162999999999997</v>
+        <v>58.497</v>
       </c>
       <c r="W22" s="1">
-        <v>82.260000000000005</v>
+        <v>58.857999999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>82.439999999999998</v>
+        <v>59.267000000000003</v>
       </c>
       <c r="Y22" s="1">
-        <v>82.537000000000006</v>
+        <v>59.686</v>
       </c>
       <c r="Z22" s="1">
-        <v>82.531999999999996</v>
+        <v>60.101999999999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>82.501000000000005</v>
+        <v>60.505000000000003</v>
       </c>
       <c r="AB22" s="1">
-        <v>82.438000000000002</v>
+        <v>60.963000000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>82.314999999999998</v>
+        <v>61.399999999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>82.218000000000004</v>
+        <v>61.795000000000002</v>
       </c>
       <c r="AE22" s="1">
-        <v>82.001999999999995</v>
+        <v>62.134999999999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>81.802000000000007</v>
+        <v>62.466000000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>81.751999999999995</v>
+        <v>62.765000000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>80.328000000000003</v>
+        <v>63.07</v>
       </c>
       <c r="AI22" s="1">
-        <v>80.524000000000001</v>
+        <v>63.375999999999998</v>
       </c>
       <c r="AJ22" s="1">
-        <v>80.766999999999996</v>
+        <v>63.652000000000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>81.099999999999994</v>
+        <v>63.920000000000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>14410.790000000001</v>
+        <v>20067.060000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>14062.93</v>
+        <v>20051.41</v>
       </c>
       <c r="E23" s="1">
-        <v>13808.540000000001</v>
+        <v>19907.580000000002</v>
       </c>
       <c r="F23" s="1">
-        <v>13586.09</v>
+        <v>20287.830000000002</v>
       </c>
       <c r="G23" s="1">
-        <v>13796.200000000001</v>
+        <v>20945.77</v>
       </c>
       <c r="H23" s="1">
-        <v>14084.059999999999</v>
+        <v>21457.91</v>
       </c>
       <c r="I23" s="1">
-        <v>14103.02</v>
+        <v>21961.509999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>13736.24</v>
+        <v>22280.18</v>
       </c>
       <c r="K23" s="1">
-        <v>14272.459999999999</v>
+        <v>22972.57</v>
       </c>
       <c r="L23" s="1">
-        <v>14741.43</v>
+        <v>23635.32</v>
       </c>
       <c r="M23" s="1">
-        <v>14644.940000000001</v>
+        <v>24517.98</v>
       </c>
       <c r="N23" s="1">
-        <v>14971.85</v>
+        <v>25416.77</v>
       </c>
       <c r="O23" s="1">
-        <v>14926.25</v>
+        <v>25576.900000000001</v>
       </c>
       <c r="P23" s="1">
-        <v>14529.700000000001</v>
+        <v>25213.279999999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>14665.92</v>
+        <v>25786.93</v>
       </c>
       <c r="R23" s="1">
-        <v>14834.5</v>
+        <v>26165.43</v>
       </c>
       <c r="S23" s="1">
-        <v>15149.969999999999</v>
+        <v>26327.68</v>
       </c>
       <c r="T23" s="1">
-        <v>15846.26</v>
+        <v>26813.549999999999</v>
       </c>
       <c r="U23" s="1">
-        <v>16392.040000000001</v>
+        <v>27296.580000000002</v>
       </c>
       <c r="V23" s="1">
-        <v>16813.419999999998</v>
+        <v>27757.470000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>17412.57</v>
+        <v>28610.66</v>
       </c>
       <c r="X23" s="1">
-        <v>18011.68</v>
+        <v>29074.130000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>18524.450000000001</v>
+        <v>29044.91</v>
       </c>
       <c r="Z23" s="1">
-        <v>19699.549999999999</v>
+        <v>28833.66</v>
       </c>
       <c r="AA23" s="1">
-        <v>20602.41</v>
+        <v>29047.34</v>
       </c>
       <c r="AB23" s="1">
-        <v>20718.400000000001</v>
+        <v>29324.709999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>21847.470000000001</v>
+        <v>30507.84</v>
       </c>
       <c r="AD23" s="1">
-        <v>22556.07</v>
+        <v>31577.209999999999</v>
       </c>
       <c r="AE23" s="1">
-        <v>22378.650000000001</v>
+        <v>31915.18</v>
       </c>
       <c r="AF23" s="1">
-        <v>21379.040000000001</v>
+        <v>30212.740000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>20227.049999999999</v>
+        <v>31424.220000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>18533.799999999999</v>
+        <v>33170.169999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>17316.310000000001</v>
+        <v>33292.419999999998</v>
       </c>
       <c r="AJ23" s="1">
-        <v>16732.869999999999</v>
+        <v>33326.790000000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>16969.669999999998</v>
+        <v>33714.669999999998</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <v>2.6629999999999998</v>
+        <v>3.359</v>
       </c>
       <c r="D24" s="1">
-        <v>3.9159999999999999</v>
+        <v>4.8310000000000004</v>
       </c>
       <c r="E24" s="1">
-        <v>5.5940000000000003</v>
+        <v>6.734</v>
       </c>
       <c r="F24" s="1">
-        <v>7.6029999999999998</v>
+        <v>8.0990000000000002</v>
       </c>
       <c r="G24" s="1">
-        <v>7.8769999999999998</v>
+        <v>8.0579999999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>7.5549999999999997</v>
+        <v>8.1240000000000006</v>
       </c>
       <c r="I24" s="1">
-        <v>7.1399999999999997</v>
+        <v>7.8339999999999996</v>
       </c>
       <c r="J24" s="1">
-        <v>7.1219999999999999</v>
+        <v>7.843</v>
       </c>
       <c r="K24" s="1">
-        <v>7.423</v>
+        <v>7.7350000000000003</v>
       </c>
       <c r="L24" s="1">
-        <v>7.2169999999999996</v>
+        <v>6.79</v>
       </c>
       <c r="M24" s="1">
-        <v>6.7949999999999999</v>
+        <v>6.1550000000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>7.4249999999999998</v>
+        <v>5.4699999999999998</v>
       </c>
       <c r="O24" s="1">
-        <v>8.3680000000000003</v>
+        <v>6.5919999999999996</v>
       </c>
       <c r="P24" s="1">
-        <v>9.3390000000000004</v>
+        <v>7.7750000000000004</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.2989999999999995</v>
+        <v>8.4250000000000007</v>
       </c>
       <c r="R24" s="1">
-        <v>9.0709999999999997</v>
+        <v>8.2330000000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>9.8040000000000003</v>
+        <v>8.9079999999999995</v>
       </c>
       <c r="T24" s="1">
-        <v>9.7539999999999996</v>
+        <v>9.6579999999999995</v>
       </c>
       <c r="U24" s="1">
-        <v>11.222</v>
+        <v>9.3829999999999991</v>
       </c>
       <c r="V24" s="1">
-        <v>12.096</v>
+        <v>8.5579999999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>11.35</v>
+        <v>7.9500000000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>10.792999999999999</v>
+        <v>7.7999999999999998</v>
       </c>
       <c r="Y24" s="1">
-        <v>10.353999999999999</v>
+        <v>8.5999999999999996</v>
       </c>
       <c r="Z24" s="1">
-        <v>9.7940000000000005</v>
+        <v>9.7080000000000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>10.590999999999999</v>
+        <v>10.333</v>
       </c>
       <c r="AB24" s="1">
-        <v>9.9969999999999999</v>
+        <v>11</v>
       </c>
       <c r="AC24" s="1">
-        <v>9.0079999999999991</v>
+        <v>10.042</v>
       </c>
       <c r="AD24" s="1">
-        <v>8.3970000000000002</v>
+        <v>8.5749999999999993</v>
       </c>
       <c r="AE24" s="1">
-        <v>7.7590000000000003</v>
+        <v>7.4080000000000004</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.6159999999999997</v>
+        <v>7.6749999999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>12.712999999999999</v>
+        <v>6.9580000000000002</v>
       </c>
       <c r="AH24" s="1">
-        <v>17.864000000000001</v>
+        <v>5.8579999999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>24.439</v>
+        <v>5.367</v>
       </c>
       <c r="AJ24" s="1">
-        <v>27.466000000000001</v>
+        <v>5.242</v>
       </c>
       <c r="AK24" s="1">
-        <v>26.491</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>9.6430000000000007</v>
+        <v>77.132000000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>9.7279999999999998</v>
+        <v>77.278000000000006</v>
       </c>
       <c r="E25" s="1">
-        <v>9.7949999999999999</v>
+        <v>77.222999999999999</v>
       </c>
       <c r="F25" s="1">
-        <v>9.8480000000000008</v>
+        <v>76.953000000000003</v>
       </c>
       <c r="G25" s="1">
-        <v>9.8930000000000007</v>
+        <v>76.643000000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>9.9339999999999993</v>
+        <v>76.453000000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>9.9719999999999995</v>
+        <v>76.506</v>
       </c>
       <c r="J25" s="1">
-        <v>10.007</v>
+        <v>76.519999999999996</v>
       </c>
       <c r="K25" s="1">
-        <v>10.044</v>
+        <v>76.986000000000004</v>
       </c>
       <c r="L25" s="1">
-        <v>10.093999999999999</v>
+        <v>77.754999999999995</v>
       </c>
       <c r="M25" s="1">
-        <v>10.161</v>
+        <v>79.245999999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>10.247</v>
+        <v>80.275000000000006</v>
       </c>
       <c r="O25" s="1">
-        <v>10.35</v>
+        <v>80.974999999999994</v>
       </c>
       <c r="P25" s="1">
-        <v>10.462</v>
+        <v>81.337999999999994</v>
       </c>
       <c r="Q25" s="1">
-        <v>10.571999999999999</v>
+        <v>81.539000000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>10.672000000000001</v>
+        <v>81.816999999999993</v>
       </c>
       <c r="S25" s="1">
-        <v>10.757999999999999</v>
+        <v>82.012</v>
       </c>
       <c r="T25" s="1">
-        <v>10.744999999999999</v>
+        <v>82.057000000000002</v>
       </c>
       <c r="U25" s="1">
-        <v>10.808</v>
+        <v>82.037000000000006</v>
       </c>
       <c r="V25" s="1">
-        <v>10.861000000000001</v>
+        <v>82.162999999999997</v>
       </c>
       <c r="W25" s="1">
-        <v>10.904</v>
+        <v>82.260000000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>10.935</v>
+        <v>82.439999999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>10.968999999999999</v>
+        <v>82.537000000000006</v>
       </c>
       <c r="Z25" s="1">
-        <v>10.999000000000001</v>
+        <v>82.531999999999996</v>
       </c>
       <c r="AA25" s="1">
-        <v>11.038</v>
+        <v>82.501000000000005</v>
       </c>
       <c r="AB25" s="1">
-        <v>11.074</v>
+        <v>82.438000000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>11.112</v>
+        <v>82.314999999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>11.144</v>
+        <v>82.218000000000004</v>
       </c>
       <c r="AE25" s="1">
-        <v>11.182</v>
+        <v>82.001999999999995</v>
       </c>
       <c r="AF25" s="1">
-        <v>11.191000000000001</v>
+        <v>81.802000000000007</v>
       </c>
       <c r="AG25" s="1">
-        <v>11.183999999999999</v>
+        <v>81.751999999999995</v>
       </c>
       <c r="AH25" s="1">
-        <v>11.122999999999999</v>
+        <v>80.328000000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>11.122999999999999</v>
+        <v>80.524000000000001</v>
       </c>
       <c r="AJ25" s="1">
-        <v>11.063000000000001</v>
+        <v>80.766999999999996</v>
       </c>
       <c r="AK25" s="1">
-        <v>10.993</v>
+        <v>81.099999999999994</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="1">
-        <v>14074.059999999999</v>
+        <v>14410.790000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>14249.98</v>
+        <v>14062.93</v>
       </c>
       <c r="E26" s="1">
-        <v>14310.84</v>
+        <v>13808.540000000001</v>
       </c>
       <c r="F26" s="1">
-        <v>14109.15</v>
+        <v>13586.09</v>
       </c>
       <c r="G26" s="1">
-        <v>14458.120000000001</v>
+        <v>13796.200000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>14693.889999999999</v>
+        <v>14084.059999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>14753.67</v>
+        <v>14103.02</v>
       </c>
       <c r="J26" s="1">
-        <v>15265.389999999999</v>
+        <v>13736.24</v>
       </c>
       <c r="K26" s="1">
-        <v>15793.41</v>
+        <v>14272.459999999999</v>
       </c>
       <c r="L26" s="1">
-        <v>16780.84</v>
+        <v>14741.43</v>
       </c>
       <c r="M26" s="1">
-        <v>18093.82</v>
+        <v>14644.940000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>18287.029999999999</v>
+        <v>14971.85</v>
       </c>
       <c r="O26" s="1">
-        <v>18788.139999999999</v>
+        <v>14926.25</v>
       </c>
       <c r="P26" s="1">
-        <v>19117.490000000002</v>
+        <v>14529.700000000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>20177.619999999999</v>
+        <v>14665.92</v>
       </c>
       <c r="R26" s="1">
-        <v>22018.720000000001</v>
+        <v>14834.5</v>
       </c>
       <c r="S26" s="1">
-        <v>23895.09</v>
+        <v>15149.969999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>26289.060000000001</v>
+        <v>15846.26</v>
       </c>
       <c r="U26" s="1">
-        <v>28332.209999999999</v>
+        <v>16392.040000000001</v>
       </c>
       <c r="V26" s="1">
-        <v>31058.369999999999</v>
+        <v>16813.419999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>33802.610000000001</v>
+        <v>17412.57</v>
       </c>
       <c r="X26" s="1">
-        <v>35237.839999999997</v>
+        <v>18011.68</v>
       </c>
       <c r="Y26" s="1">
-        <v>36662.919999999998</v>
+        <v>18524.450000000001</v>
       </c>
       <c r="Z26" s="1">
-        <v>37471.800000000003</v>
+        <v>19699.549999999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>38490.800000000003</v>
+        <v>20602.41</v>
       </c>
       <c r="AB26" s="1">
-        <v>40051.769999999997</v>
+        <v>20718.400000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>41581.889999999999</v>
+        <v>21847.470000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>42453.489999999998</v>
+        <v>22556.07</v>
       </c>
       <c r="AE26" s="1">
-        <v>40523.290000000001</v>
+        <v>22378.650000000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>37831.050000000003</v>
+        <v>21379.040000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>37803.419999999998</v>
+        <v>20227.049999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>38611.400000000001</v>
+        <v>18533.799999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>38581.190000000002</v>
+        <v>17316.310000000001</v>
       </c>
       <c r="AJ26" s="1">
-        <v>39068.970000000001</v>
+        <v>16732.869999999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>40953.190000000002</v>
+        <v>16969.669999999998</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="1">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.9159999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5.5940000000000003</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7.6029999999999998</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7.8769999999999998</v>
+      </c>
       <c r="H27" s="1">
-        <v>17.699999999999999</v>
+        <v>7.5549999999999997</v>
       </c>
       <c r="I27" s="1">
-        <v>18.100000000000001</v>
+        <v>7.1399999999999997</v>
       </c>
       <c r="J27" s="1">
-        <v>18.800000000000001</v>
+        <v>7.1219999999999999</v>
       </c>
       <c r="K27" s="1">
-        <v>18.399999999999999</v>
+        <v>7.423</v>
       </c>
       <c r="L27" s="1">
-        <v>17.899999999999999</v>
+        <v>7.2169999999999996</v>
       </c>
       <c r="M27" s="1">
-        <v>17.199999999999999</v>
+        <v>6.7949999999999999</v>
       </c>
       <c r="N27" s="1">
-        <v>19</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="O27" s="1">
-        <v>16.300000000000001</v>
+        <v>8.3680000000000003</v>
       </c>
       <c r="P27" s="1">
-        <v>16.699999999999999</v>
+        <v>9.3390000000000004</v>
       </c>
       <c r="Q27" s="1">
-        <v>15.1</v>
+        <v>9.2989999999999995</v>
       </c>
       <c r="R27" s="1">
-        <v>14.1</v>
+        <v>9.0709999999999997</v>
       </c>
       <c r="S27" s="1">
-        <v>11.800000000000001</v>
+        <v>9.8040000000000003</v>
       </c>
       <c r="T27" s="1">
-        <v>10.1</v>
+        <v>9.7539999999999996</v>
       </c>
       <c r="U27" s="1">
-        <v>7.383</v>
+        <v>11.222</v>
       </c>
       <c r="V27" s="1">
-        <v>5.556</v>
+        <v>12.096</v>
       </c>
       <c r="W27" s="1">
-        <v>4.2519999999999998</v>
+        <v>11.35</v>
       </c>
       <c r="X27" s="1">
-        <v>3.9300000000000002</v>
+        <v>10.792999999999999</v>
       </c>
       <c r="Y27" s="1">
-        <v>4.4480000000000004</v>
+        <v>10.353999999999999</v>
       </c>
       <c r="Z27" s="1">
-        <v>4.5800000000000001</v>
+        <v>9.7940000000000005</v>
       </c>
       <c r="AA27" s="1">
-        <v>4.4889999999999999</v>
+        <v>10.590999999999999</v>
       </c>
       <c r="AB27" s="1">
-        <v>4.3890000000000002</v>
+        <v>9.9969999999999999</v>
       </c>
       <c r="AC27" s="1">
-        <v>4.4989999999999997</v>
+        <v>9.0079999999999991</v>
       </c>
       <c r="AD27" s="1">
-        <v>4.6740000000000004</v>
+        <v>8.3970000000000002</v>
       </c>
       <c r="AE27" s="1">
-        <v>6.4000000000000004</v>
+        <v>7.7590000000000003</v>
       </c>
       <c r="AF27" s="1">
-        <v>12.009</v>
+        <v>9.6159999999999997</v>
       </c>
       <c r="AG27" s="1">
-        <v>13.853</v>
+        <v>12.712999999999999</v>
       </c>
       <c r="AH27" s="1">
-        <v>14.625</v>
+        <v>17.864000000000001</v>
       </c>
       <c r="AI27" s="1">
-        <v>14.672000000000001</v>
+        <v>24.439</v>
       </c>
       <c r="AJ27" s="1">
-        <v>13.045</v>
+        <v>27.466000000000001</v>
       </c>
       <c r="AK27" s="1">
-        <v>11.263</v>
+        <v>26.491</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="1">
-        <v>3.4009999999999998</v>
+        <v>9.6430000000000007</v>
       </c>
       <c r="D28" s="1">
-        <v>3.4430000000000001</v>
+        <v>9.7279999999999998</v>
       </c>
       <c r="E28" s="1">
-        <v>3.48</v>
+        <v>9.7949999999999999</v>
       </c>
       <c r="F28" s="1">
-        <v>3.504</v>
+        <v>9.8480000000000008</v>
       </c>
       <c r="G28" s="1">
-        <v>3.5289999999999999</v>
+        <v>9.8930000000000007</v>
       </c>
       <c r="H28" s="1">
-        <v>3.54</v>
+        <v>9.9339999999999993</v>
       </c>
       <c r="I28" s="1">
-        <v>3.5409999999999999</v>
+        <v>9.9719999999999995</v>
       </c>
       <c r="J28" s="1">
-        <v>3.5470000000000002</v>
+        <v>10.007</v>
       </c>
       <c r="K28" s="1">
-        <v>3.5310000000000001</v>
+        <v>10.044</v>
       </c>
       <c r="L28" s="1">
-        <v>3.5099999999999998</v>
+        <v>10.093999999999999</v>
       </c>
       <c r="M28" s="1">
-        <v>3.5059999999999998</v>
+        <v>10.161</v>
       </c>
       <c r="N28" s="1">
-        <v>3.5259999999999998</v>
+        <v>10.247</v>
       </c>
       <c r="O28" s="1">
-        <v>3.5550000000000002</v>
+        <v>10.35</v>
       </c>
       <c r="P28" s="1">
-        <v>3.5739999999999998</v>
+        <v>10.462</v>
       </c>
       <c r="Q28" s="1">
-        <v>3.5859999999999999</v>
+        <v>10.571999999999999</v>
       </c>
       <c r="R28" s="1">
-        <v>3.601</v>
+        <v>10.672000000000001</v>
       </c>
       <c r="S28" s="1">
-        <v>3.6259999999999999</v>
+        <v>10.757999999999999</v>
       </c>
       <c r="T28" s="1">
-        <v>3.6640000000000001</v>
+        <v>10.744999999999999</v>
       </c>
       <c r="U28" s="1">
-        <v>3.7029999999999998</v>
+        <v>10.808</v>
       </c>
       <c r="V28" s="1">
-        <v>3.742</v>
+        <v>10.861000000000001</v>
       </c>
       <c r="W28" s="1">
-        <v>3.79</v>
+        <v>10.904</v>
       </c>
       <c r="X28" s="1">
-        <v>3.847</v>
+        <v>10.935</v>
       </c>
       <c r="Y28" s="1">
-        <v>3.9169999999999998</v>
+        <v>10.968999999999999</v>
       </c>
       <c r="Z28" s="1">
-        <v>3.98</v>
+        <v>10.999000000000001</v>
       </c>
       <c r="AA28" s="1">
-        <v>4.0449999999999999</v>
+        <v>11.038</v>
       </c>
       <c r="AB28" s="1">
-        <v>4.1340000000000003</v>
+        <v>11.074</v>
       </c>
       <c r="AC28" s="1">
-        <v>4.2329999999999997</v>
+        <v>11.112</v>
       </c>
       <c r="AD28" s="1">
-        <v>4.3760000000000003</v>
+        <v>11.144</v>
       </c>
       <c r="AE28" s="1">
-        <v>4.4850000000000003</v>
+        <v>11.182</v>
       </c>
       <c r="AF28" s="1">
-        <v>4.5330000000000004</v>
+        <v>11.191000000000001</v>
       </c>
       <c r="AG28" s="1">
-        <v>4.5549999999999997</v>
+        <v>11.183999999999999</v>
       </c>
       <c r="AH28" s="1">
-        <v>4.5750000000000002</v>
+        <v>11.122999999999999</v>
       </c>
       <c r="AI28" s="1">
-        <v>4.585</v>
+        <v>11.122999999999999</v>
       </c>
       <c r="AJ28" s="1">
-        <v>4.593</v>
+        <v>11.063000000000001</v>
       </c>
       <c r="AK28" s="1">
-        <v>4.6100000000000003</v>
+        <v>10.993</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="1">
-        <v>18588.990000000002</v>
+        <v>14074.059999999999</v>
       </c>
       <c r="D29" s="1">
-        <v>18715.779999999999</v>
+        <v>14249.98</v>
       </c>
       <c r="E29" s="1">
-        <v>18778.32</v>
+        <v>14310.84</v>
       </c>
       <c r="F29" s="1">
-        <v>18984.77</v>
+        <v>14109.15</v>
       </c>
       <c r="G29" s="1">
-        <v>19596.48</v>
+        <v>14458.120000000001</v>
       </c>
       <c r="H29" s="1">
-        <v>20136.560000000001</v>
+        <v>14693.889999999999</v>
       </c>
       <c r="I29" s="1">
-        <v>20708.959999999999</v>
+        <v>14753.67</v>
       </c>
       <c r="J29" s="1">
-        <v>21371.27</v>
+        <v>15265.389999999999</v>
       </c>
       <c r="K29" s="1">
-        <v>22261.77</v>
+        <v>15793.41</v>
       </c>
       <c r="L29" s="1">
-        <v>22999.919999999998</v>
+        <v>16780.84</v>
       </c>
       <c r="M29" s="1">
-        <v>23453.299999999999</v>
+        <v>18093.82</v>
       </c>
       <c r="N29" s="1">
-        <v>23792.16</v>
+        <v>18287.029999999999</v>
       </c>
       <c r="O29" s="1">
-        <v>23963.869999999999</v>
+        <v>18788.139999999999</v>
       </c>
       <c r="P29" s="1">
-        <v>23730.84</v>
+        <v>19117.490000000002</v>
       </c>
       <c r="Q29" s="1">
-        <v>24232.459999999999</v>
+        <v>20177.619999999999</v>
       </c>
       <c r="R29" s="1">
-        <v>24797.830000000002</v>
+        <v>22018.720000000001</v>
       </c>
       <c r="S29" s="1">
-        <v>25117.040000000001</v>
+        <v>23895.09</v>
       </c>
       <c r="T29" s="1">
-        <v>25563.700000000001</v>
+        <v>26289.060000000001</v>
       </c>
       <c r="U29" s="1">
-        <v>25964.310000000001</v>
+        <v>28332.209999999999</v>
       </c>
       <c r="V29" s="1">
-        <v>26367.450000000001</v>
+        <v>31058.369999999999</v>
       </c>
       <c r="W29" s="1">
-        <v>27338.799999999999</v>
+        <v>33802.610000000001</v>
       </c>
       <c r="X29" s="1">
-        <v>27805.32</v>
+        <v>35237.839999999997</v>
       </c>
       <c r="Y29" s="1">
-        <v>27861.93</v>
+        <v>36662.919999999998</v>
       </c>
       <c r="Z29" s="1">
-        <v>27834.599999999999</v>
+        <v>37471.800000000003</v>
       </c>
       <c r="AA29" s="1">
-        <v>28095.619999999999</v>
+        <v>38490.800000000003</v>
       </c>
       <c r="AB29" s="1">
-        <v>28176.740000000002</v>
+        <v>40051.769999999997</v>
       </c>
       <c r="AC29" s="1">
-        <v>28648.299999999999</v>
+        <v>41581.889999999999</v>
       </c>
       <c r="AD29" s="1">
-        <v>28990.970000000001</v>
+        <v>42453.489999999998</v>
       </c>
       <c r="AE29" s="1">
-        <v>28476.73</v>
+        <v>40523.290000000001</v>
       </c>
       <c r="AF29" s="1">
-        <v>26757.189999999999</v>
+        <v>37831.050000000003</v>
       </c>
       <c r="AG29" s="1">
-        <v>27127.73</v>
+        <v>37803.419999999998</v>
       </c>
       <c r="AH29" s="1">
-        <v>27206.700000000001</v>
+        <v>38611.400000000001</v>
       </c>
       <c r="AI29" s="1">
-        <v>26439.82</v>
+        <v>38581.190000000002</v>
       </c>
       <c r="AJ29" s="1">
-        <v>25864.060000000001</v>
+        <v>39068.970000000001</v>
       </c>
       <c r="AK29" s="1">
-        <v>25288.869999999999</v>
+        <v>40953.190000000002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="1">
-        <v>7.3700000000000001</v>
-      </c>
-      <c r="D30" s="1">
-        <v>7.649</v>
-      </c>
-      <c r="E30" s="1">
-        <v>8.2880000000000003</v>
-      </c>
-      <c r="F30" s="1">
-        <v>7.367</v>
-      </c>
-      <c r="G30" s="1">
-        <v>7.8330000000000002</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1">
-        <v>8.1669999999999998</v>
+        <v>17.699999999999999</v>
       </c>
       <c r="I30" s="1">
-        <v>8.8670000000000009</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J30" s="1">
-        <v>9.6170000000000009</v>
+        <v>18.800000000000001</v>
       </c>
       <c r="K30" s="1">
-        <v>9.6829999999999998</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="L30" s="1">
-        <v>9.6669999999999998</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M30" s="1">
-        <v>8.8580000000000005</v>
+        <v>17.199999999999999</v>
       </c>
       <c r="N30" s="1">
-        <v>8.5329999999999995</v>
+        <v>19</v>
       </c>
       <c r="O30" s="1">
-        <v>8.8079999999999998</v>
+        <v>16.300000000000001</v>
       </c>
       <c r="P30" s="1">
-        <v>9.8330000000000002</v>
+        <v>16.699999999999999</v>
       </c>
       <c r="Q30" s="1">
-        <v>10.632999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="R30" s="1">
-        <v>11.15</v>
+        <v>14.1</v>
       </c>
       <c r="S30" s="1">
-        <v>11.15</v>
+        <v>11.800000000000001</v>
       </c>
       <c r="T30" s="1">
-        <v>11.242000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="U30" s="1">
-        <v>11.333</v>
+        <v>7.383</v>
       </c>
       <c r="V30" s="1">
-        <v>10.942</v>
+        <v>5.556</v>
       </c>
       <c r="W30" s="1">
-        <v>10.1</v>
+        <v>4.2519999999999998</v>
       </c>
       <c r="X30" s="1">
-        <v>9.0999999999999996</v>
+        <v>3.9300000000000002</v>
       </c>
       <c r="Y30" s="1">
-        <v>8.6080000000000005</v>
+        <v>4.4480000000000004</v>
       </c>
       <c r="Z30" s="1">
-        <v>8.4499999999999993</v>
+        <v>4.5800000000000001</v>
       </c>
       <c r="AA30" s="1">
-        <v>7.9580000000000002</v>
+        <v>4.4889999999999999</v>
       </c>
       <c r="AB30" s="1">
-        <v>7.7169999999999996</v>
+        <v>4.3890000000000002</v>
       </c>
       <c r="AC30" s="1">
-        <v>6.7830000000000004</v>
+        <v>4.4989999999999997</v>
       </c>
       <c r="AD30" s="1">
-        <v>6.1079999999999997</v>
+        <v>4.6740000000000004</v>
       </c>
       <c r="AE30" s="1">
-        <v>6.75</v>
+        <v>6.4000000000000004</v>
       </c>
       <c r="AF30" s="1">
-        <v>7.758</v>
+        <v>12.009</v>
       </c>
       <c r="AG30" s="1">
-        <v>8.3499999999999996</v>
+        <v>13.853</v>
       </c>
       <c r="AH30" s="1">
-        <v>8.3580000000000005</v>
+        <v>14.625</v>
       </c>
       <c r="AI30" s="1">
-        <v>10.617000000000001</v>
+        <v>14.672000000000001</v>
       </c>
       <c r="AJ30" s="1">
-        <v>12.157999999999999</v>
+        <v>13.045</v>
       </c>
       <c r="AK30" s="1">
-        <v>12.667</v>
+        <v>11.263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="1">
-        <v>56.387999999999998</v>
+        <v>3.4009999999999998</v>
       </c>
       <c r="D31" s="1">
-        <v>56.478999999999999</v>
+        <v>3.4430000000000001</v>
       </c>
       <c r="E31" s="1">
-        <v>56.524000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="F31" s="1">
-        <v>56.563000000000002</v>
+        <v>3.504</v>
       </c>
       <c r="G31" s="1">
-        <v>56.564999999999998</v>
+        <v>3.5289999999999999</v>
       </c>
       <c r="H31" s="1">
-        <v>56.588000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="I31" s="1">
-        <v>56.597999999999999</v>
+        <v>3.5409999999999999</v>
       </c>
       <c r="J31" s="1">
-        <v>56.594000000000001</v>
+        <v>3.5470000000000002</v>
       </c>
       <c r="K31" s="1">
-        <v>56.609000000000002</v>
+        <v>3.5310000000000001</v>
       </c>
       <c r="L31" s="1">
-        <v>56.649000000000001</v>
+        <v>3.5099999999999998</v>
       </c>
       <c r="M31" s="1">
-        <v>56.694000000000003</v>
+        <v>3.5059999999999998</v>
       </c>
       <c r="N31" s="1">
-        <v>56.744</v>
+        <v>3.5259999999999998</v>
       </c>
       <c r="O31" s="1">
-        <v>56.773000000000003</v>
+        <v>3.5550000000000002</v>
       </c>
       <c r="P31" s="1">
-        <v>56.820999999999998</v>
+        <v>3.5739999999999998</v>
       </c>
       <c r="Q31" s="1">
-        <v>56.841999999999999</v>
+        <v>3.5859999999999999</v>
       </c>
       <c r="R31" s="1">
-        <v>56.844000000000001</v>
+        <v>3.601</v>
       </c>
       <c r="S31" s="1">
-        <v>56.844000000000001</v>
+        <v>3.6259999999999999</v>
       </c>
       <c r="T31" s="1">
-        <v>56.875999999999998</v>
+        <v>3.6640000000000001</v>
       </c>
       <c r="U31" s="1">
-        <v>56.904000000000003</v>
+        <v>3.7029999999999998</v>
       </c>
       <c r="V31" s="1">
-        <v>56.908999999999999</v>
+        <v>3.742</v>
       </c>
       <c r="W31" s="1">
-        <v>56.923999999999999</v>
+        <v>3.79</v>
       </c>
       <c r="X31" s="1">
-        <v>56.960999999999999</v>
+        <v>3.847</v>
       </c>
       <c r="Y31" s="1">
-        <v>56.988</v>
+        <v>3.9169999999999998</v>
       </c>
       <c r="Z31" s="1">
-        <v>57.131</v>
+        <v>3.98</v>
       </c>
       <c r="AA31" s="1">
-        <v>57.496000000000002</v>
+        <v>4.0449999999999999</v>
       </c>
       <c r="AB31" s="1">
-        <v>57.875</v>
+        <v>4.1340000000000003</v>
       </c>
       <c r="AC31" s="1">
-        <v>58.064</v>
+        <v>4.2329999999999997</v>
       </c>
       <c r="AD31" s="1">
-        <v>58.223999999999997</v>
+        <v>4.3760000000000003</v>
       </c>
       <c r="AE31" s="1">
-        <v>58.652999999999999</v>
+        <v>4.4850000000000003</v>
       </c>
       <c r="AF31" s="1">
-        <v>59.000999999999998</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="AG31" s="1">
-        <v>59.189999999999998</v>
+        <v>4.5549999999999997</v>
       </c>
       <c r="AH31" s="1">
-        <v>59.365000000000002</v>
+        <v>4.5750000000000002</v>
       </c>
       <c r="AI31" s="1">
-        <v>59.393999999999998</v>
+        <v>4.585</v>
       </c>
       <c r="AJ31" s="1">
-        <v>59.685000000000002</v>
+        <v>4.593</v>
       </c>
       <c r="AK31" s="1">
-        <v>60.783000000000001</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="1">
-        <v>-99</v>
+        <v>18588.990000000002</v>
       </c>
       <c r="D32" s="1">
-        <v>-99</v>
+        <v>18715.779999999999</v>
       </c>
       <c r="E32" s="1">
-        <v>-99</v>
+        <v>18778.32</v>
       </c>
       <c r="F32" s="1">
-        <v>-99</v>
+        <v>18984.77</v>
       </c>
       <c r="G32" s="1">
-        <v>-99</v>
+        <v>19596.48</v>
       </c>
       <c r="H32" s="1">
-        <v>-99</v>
+        <v>20136.560000000001</v>
       </c>
       <c r="I32" s="1">
-        <v>-99</v>
+        <v>20708.959999999999</v>
       </c>
       <c r="J32" s="1">
-        <v>-99</v>
+        <v>21371.27</v>
       </c>
       <c r="K32" s="1">
-        <v>-99</v>
+        <v>22261.77</v>
       </c>
       <c r="L32" s="1">
-        <v>-99</v>
+        <v>22999.919999999998</v>
       </c>
       <c r="M32" s="1">
-        <v>-99</v>
+        <v>23453.299999999999</v>
       </c>
       <c r="N32" s="1">
-        <v>-99</v>
+        <v>23792.16</v>
       </c>
       <c r="O32" s="1">
-        <v>-99</v>
+        <v>23963.869999999999</v>
       </c>
       <c r="P32" s="1">
-        <v>3601.4099999999999</v>
+        <v>23730.84</v>
       </c>
       <c r="Q32" s="1">
-        <v>3738.3800000000001</v>
+        <v>24232.459999999999</v>
       </c>
       <c r="R32" s="1">
-        <v>3846.0599999999999</v>
+        <v>24797.830000000002</v>
       </c>
       <c r="S32" s="1">
-        <v>3992.5500000000002</v>
+        <v>25117.040000000001</v>
       </c>
       <c r="T32" s="1">
-        <v>4386.9399999999996</v>
+        <v>25563.700000000001</v>
       </c>
       <c r="U32" s="1">
-        <v>4708.9300000000003</v>
+        <v>25964.310000000001</v>
       </c>
       <c r="V32" s="1">
-        <v>4853.8199999999997</v>
+        <v>26367.450000000001</v>
       </c>
       <c r="W32" s="1">
-        <v>5151.1000000000004</v>
+        <v>27338.799999999999</v>
       </c>
       <c r="X32" s="1">
-        <v>5586.0100000000002</v>
+        <v>27805.32</v>
       </c>
       <c r="Y32" s="1">
-        <v>6071.2700000000004</v>
+        <v>27861.93</v>
       </c>
       <c r="Z32" s="1">
-        <v>6657.1199999999999</v>
+        <v>27834.599999999999</v>
       </c>
       <c r="AA32" s="1">
-        <v>7323.4899999999998</v>
+        <v>28095.619999999999</v>
       </c>
       <c r="AB32" s="1">
-        <v>8164.5</v>
+        <v>28176.740000000002</v>
       </c>
       <c r="AC32" s="1">
-        <v>9202.7099999999991</v>
+        <v>28648.299999999999</v>
       </c>
       <c r="AD32" s="1">
-        <v>10191.040000000001</v>
+        <v>28990.970000000001</v>
       </c>
       <c r="AE32" s="1">
-        <v>9944.1000000000004</v>
+        <v>28476.73</v>
       </c>
       <c r="AF32" s="1">
-        <v>8647.7800000000007</v>
+        <v>26757.189999999999</v>
       </c>
       <c r="AG32" s="1">
-        <v>8566.9500000000007</v>
+        <v>27127.73</v>
       </c>
       <c r="AH32" s="1">
-        <v>9194.0599999999995</v>
+        <v>27206.700000000001</v>
       </c>
       <c r="AI32" s="1">
-        <v>9778.9599999999991</v>
+        <v>26439.82</v>
       </c>
       <c r="AJ32" s="1">
-        <v>10222.92</v>
+        <v>25864.060000000001</v>
       </c>
       <c r="AK32" s="1">
-        <v>10495.84</v>
+        <v>25288.869999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="1">
-        <v>-99</v>
+        <v>7.3700000000000001</v>
       </c>
       <c r="D33" s="1">
-        <v>-99</v>
+        <v>7.649</v>
       </c>
       <c r="E33" s="1">
-        <v>-99</v>
+        <v>8.2880000000000003</v>
       </c>
       <c r="F33" s="1">
-        <v>-99</v>
+        <v>7.367</v>
       </c>
       <c r="G33" s="1">
-        <v>-99</v>
+        <v>7.8330000000000002</v>
       </c>
       <c r="H33" s="1">
-        <v>-99</v>
+        <v>8.1669999999999998</v>
       </c>
       <c r="I33" s="1">
-        <v>-99</v>
+        <v>8.8670000000000009</v>
       </c>
       <c r="J33" s="1">
-        <v>-99</v>
+        <v>9.6170000000000009</v>
       </c>
       <c r="K33" s="1">
-        <v>-99</v>
+        <v>9.6829999999999998</v>
       </c>
       <c r="L33" s="1">
-        <v>-99</v>
+        <v>9.6669999999999998</v>
       </c>
       <c r="M33" s="1">
-        <v>-99</v>
+        <v>8.8580000000000005</v>
       </c>
       <c r="N33" s="1">
-        <v>-99</v>
+        <v>8.5329999999999995</v>
       </c>
       <c r="O33" s="1">
-        <v>-99</v>
+        <v>8.8079999999999998</v>
       </c>
       <c r="P33" s="1">
-        <v>6.9509999999999996</v>
+        <v>9.8330000000000002</v>
       </c>
       <c r="Q33" s="1">
-        <v>6.9509999999999996</v>
+        <v>10.632999999999999</v>
       </c>
       <c r="R33" s="1">
-        <v>6.9509999999999996</v>
+        <v>11.15</v>
       </c>
       <c r="S33" s="1">
-        <v>20.710999999999999</v>
+        <v>11.15</v>
       </c>
       <c r="T33" s="1">
-        <v>15.167</v>
+        <v>11.242000000000001</v>
       </c>
       <c r="U33" s="1">
-        <v>13.975</v>
+        <v>11.333</v>
       </c>
       <c r="V33" s="1">
-        <v>14.050000000000001</v>
+        <v>10.942</v>
       </c>
       <c r="W33" s="1">
-        <v>14.324999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="X33" s="1">
-        <v>13.449999999999999</v>
+        <v>9.0999999999999996</v>
       </c>
       <c r="Y33" s="1">
-        <v>12.475</v>
+        <v>8.6080000000000005</v>
       </c>
       <c r="Z33" s="1">
-        <v>11.65</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="AA33" s="1">
-        <v>11.75</v>
+        <v>7.9580000000000002</v>
       </c>
       <c r="AB33" s="1">
-        <v>10.050000000000001</v>
+        <v>7.7169999999999996</v>
       </c>
       <c r="AC33" s="1">
-        <v>7.0499999999999998</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="AD33" s="1">
-        <v>6.0750000000000002</v>
+        <v>6.1079999999999997</v>
       </c>
       <c r="AE33" s="1">
-        <v>7.7249999999999996</v>
+        <v>6.75</v>
       </c>
       <c r="AF33" s="1">
-        <v>17.524999999999999</v>
+        <v>7.758</v>
       </c>
       <c r="AG33" s="1">
-        <v>19.5</v>
+        <v>8.3499999999999996</v>
       </c>
       <c r="AH33" s="1">
-        <v>16.202999999999999</v>
+        <v>8.3580000000000005</v>
       </c>
       <c r="AI33" s="1">
-        <v>15.048</v>
+        <v>10.617000000000001</v>
       </c>
       <c r="AJ33" s="1">
-        <v>11.862</v>
+        <v>12.157999999999999</v>
       </c>
       <c r="AK33" s="1">
-        <v>10.843</v>
+        <v>12.667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="1">
-        <v>-99</v>
+        <v>56.387999999999998</v>
       </c>
       <c r="D34" s="1">
-        <v>-99</v>
+        <v>56.478999999999999</v>
       </c>
       <c r="E34" s="1">
-        <v>-99</v>
+        <v>56.524000000000001</v>
       </c>
       <c r="F34" s="1">
-        <v>-99</v>
+        <v>56.563000000000002</v>
       </c>
       <c r="G34" s="1">
-        <v>-99</v>
+        <v>56.564999999999998</v>
       </c>
       <c r="H34" s="1">
-        <v>-99</v>
+        <v>56.588000000000001</v>
       </c>
       <c r="I34" s="1">
-        <v>-99</v>
+        <v>56.597999999999999</v>
       </c>
       <c r="J34" s="1">
-        <v>-99</v>
+        <v>56.594000000000001</v>
       </c>
       <c r="K34" s="1">
-        <v>-99</v>
+        <v>56.609000000000002</v>
       </c>
       <c r="L34" s="1">
-        <v>-99</v>
+        <v>56.649000000000001</v>
       </c>
       <c r="M34" s="1">
-        <v>-99</v>
+        <v>56.694000000000003</v>
       </c>
       <c r="N34" s="1">
-        <v>-99</v>
+        <v>56.744</v>
       </c>
       <c r="O34" s="1">
-        <v>-99</v>
+        <v>56.773000000000003</v>
       </c>
       <c r="P34" s="1">
-        <v>2.669</v>
+        <v>56.820999999999998</v>
       </c>
       <c r="Q34" s="1">
-        <v>2.6269999999999998</v>
+        <v>56.841999999999999</v>
       </c>
       <c r="R34" s="1">
-        <v>2.5009999999999999</v>
+        <v>56.844000000000001</v>
       </c>
       <c r="S34" s="1">
-        <v>2.4700000000000002</v>
+        <v>56.844000000000001</v>
       </c>
       <c r="T34" s="1">
-        <v>2.4449999999999998</v>
+        <v>56.875999999999998</v>
       </c>
       <c r="U34" s="1">
-        <v>2.4209999999999998</v>
+        <v>56.904000000000003</v>
       </c>
       <c r="V34" s="1">
-        <v>2.399</v>
+        <v>56.908999999999999</v>
       </c>
       <c r="W34" s="1">
-        <v>2.3820000000000001</v>
+        <v>56.923999999999999</v>
       </c>
       <c r="X34" s="1">
-        <v>2.3530000000000002</v>
+        <v>56.960999999999999</v>
       </c>
       <c r="Y34" s="1">
-        <v>2.3210000000000002</v>
+        <v>56.988</v>
       </c>
       <c r="Z34" s="1">
-        <v>2.2989999999999999</v>
+        <v>57.131</v>
       </c>
       <c r="AA34" s="1">
-        <v>2.2770000000000001</v>
+        <v>57.496000000000002</v>
       </c>
       <c r="AB34" s="1">
-        <v>2.25</v>
+        <v>57.875</v>
       </c>
       <c r="AC34" s="1">
-        <v>2.2280000000000002</v>
+        <v>58.064</v>
       </c>
       <c r="AD34" s="1">
-        <v>2.2090000000000001</v>
+        <v>58.223999999999997</v>
       </c>
       <c r="AE34" s="1">
-        <v>2.1920000000000002</v>
+        <v>58.652999999999999</v>
       </c>
       <c r="AF34" s="1">
-        <v>2.1629999999999998</v>
+        <v>59.000999999999998</v>
       </c>
       <c r="AG34" s="1">
-        <v>2.121</v>
+        <v>59.189999999999998</v>
       </c>
       <c r="AH34" s="1">
-        <v>2.0750000000000002</v>
+        <v>59.365000000000002</v>
       </c>
       <c r="AI34" s="1">
-        <v>2.0449999999999999</v>
+        <v>59.393999999999998</v>
       </c>
       <c r="AJ34" s="1">
-        <v>2.0390000000000001</v>
+        <v>59.685000000000002</v>
       </c>
       <c r="AK34" s="1">
-        <v>2.0329999999999999</v>
+        <v>60.783000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="1">
-        <v>-99</v>
+        <v>18588.990000000002</v>
       </c>
       <c r="D35" s="1">
-        <v>-99</v>
+        <v>18715.779999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>-99</v>
+        <v>18778.32</v>
       </c>
       <c r="F35" s="1">
-        <v>-99</v>
+        <v>18984.77</v>
       </c>
       <c r="G35" s="1">
-        <v>-99</v>
+        <v>19596.48</v>
       </c>
       <c r="H35" s="1">
-        <v>-99</v>
+        <v>20136.560000000001</v>
       </c>
       <c r="I35" s="1">
-        <v>-99</v>
+        <v>20708.959999999999</v>
       </c>
       <c r="J35" s="1">
-        <v>-99</v>
+        <v>21371.27</v>
       </c>
       <c r="K35" s="1">
-        <v>-99</v>
+        <v>22261.77</v>
       </c>
       <c r="L35" s="1">
-        <v>-99</v>
+        <v>22999.919999999998</v>
       </c>
       <c r="M35" s="1">
-        <v>-99</v>
+        <v>23453.299999999999</v>
       </c>
       <c r="N35" s="1">
-        <v>-99</v>
+        <v>23792.16</v>
       </c>
       <c r="O35" s="1">
-        <v>-99</v>
+        <v>23963.869999999999</v>
       </c>
       <c r="P35" s="1">
-        <v>-99</v>
+        <v>23730.84</v>
       </c>
       <c r="Q35" s="1">
-        <v>-99</v>
+        <v>24232.459999999999</v>
       </c>
       <c r="R35" s="1">
-        <v>-99</v>
+        <v>24797.830000000002</v>
       </c>
       <c r="S35" s="1">
-        <v>-99</v>
+        <v>25117.040000000001</v>
       </c>
       <c r="T35" s="1">
-        <v>-99</v>
+        <v>25563.700000000001</v>
       </c>
       <c r="U35" s="1">
-        <v>-99</v>
+        <v>25964.310000000001</v>
       </c>
       <c r="V35" s="1">
-        <v>5109.4200000000001</v>
+        <v>26367.450000000001</v>
       </c>
       <c r="W35" s="1">
-        <v>5331.8199999999997</v>
+        <v>27338.799999999999</v>
       </c>
       <c r="X35" s="1">
-        <v>5718.7799999999997</v>
+        <v>27805.32</v>
       </c>
       <c r="Y35" s="1">
-        <v>6131.3100000000004</v>
+        <v>27861.93</v>
       </c>
       <c r="Z35" s="1">
-        <v>6790.5299999999997</v>
+        <v>27834.599999999999</v>
       </c>
       <c r="AA35" s="1">
-        <v>7330.1899999999996</v>
+        <v>28095.619999999999</v>
       </c>
       <c r="AB35" s="1">
-        <v>7950.8100000000004</v>
+        <v>28176.740000000002</v>
       </c>
       <c r="AC35" s="1">
-        <v>8677.0300000000007</v>
+        <v>28648.299999999999</v>
       </c>
       <c r="AD35" s="1">
-        <v>9754.2399999999998</v>
+        <v>28990.970000000001</v>
       </c>
       <c r="AE35" s="1">
-        <v>10114.08</v>
+        <v>28476.73</v>
       </c>
       <c r="AF35" s="1">
-        <v>8711.9599999999991</v>
+        <v>26757.189999999999</v>
       </c>
       <c r="AG35" s="1">
-        <v>9040.6000000000004</v>
+        <v>27127.73</v>
       </c>
       <c r="AH35" s="1">
-        <v>9812.5499999999993</v>
+        <v>27206.700000000001</v>
       </c>
       <c r="AI35" s="1">
-        <v>10326.76</v>
+        <v>26439.82</v>
       </c>
       <c r="AJ35" s="1">
-        <v>10771.57</v>
+        <v>25864.060000000001</v>
       </c>
       <c r="AK35" s="1">
-        <v>11185.08</v>
+        <v>25288.869999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="1">
-        <v>-99</v>
+        <v>7.3700000000000001</v>
       </c>
       <c r="D36" s="1">
-        <v>-99</v>
+        <v>7.649</v>
       </c>
       <c r="E36" s="1">
-        <v>-99</v>
+        <v>8.2880000000000003</v>
       </c>
       <c r="F36" s="1">
-        <v>-99</v>
+        <v>7.367</v>
       </c>
       <c r="G36" s="1">
-        <v>-99</v>
+        <v>7.8330000000000002</v>
       </c>
       <c r="H36" s="1">
-        <v>-99</v>
+        <v>8.1669999999999998</v>
       </c>
       <c r="I36" s="1">
-        <v>-99</v>
+        <v>8.8670000000000009</v>
       </c>
       <c r="J36" s="1">
-        <v>-99</v>
+        <v>9.6170000000000009</v>
       </c>
       <c r="K36" s="1">
-        <v>-99</v>
+        <v>9.6829999999999998</v>
       </c>
       <c r="L36" s="1">
-        <v>-99</v>
+        <v>9.6669999999999998</v>
       </c>
       <c r="M36" s="1">
-        <v>-99</v>
+        <v>8.8580000000000005</v>
       </c>
       <c r="N36" s="1">
-        <v>-99</v>
+        <v>8.5329999999999995</v>
       </c>
       <c r="O36" s="1">
-        <v>-99</v>
+        <v>8.8079999999999998</v>
       </c>
       <c r="P36" s="1">
-        <v>-99</v>
+        <v>9.8330000000000002</v>
       </c>
       <c r="Q36" s="1">
-        <v>-99</v>
+        <v>10.632999999999999</v>
       </c>
       <c r="R36" s="1">
-        <v>-99</v>
+        <v>11.15</v>
       </c>
       <c r="S36" s="1">
-        <v>-99</v>
+        <v>11.15</v>
       </c>
       <c r="T36" s="1">
-        <v>-99</v>
+        <v>11.242000000000001</v>
       </c>
       <c r="U36" s="1">
-        <v>-99</v>
+        <v>11.333</v>
       </c>
       <c r="V36" s="1">
-        <v>14.6</v>
+        <v>10.942</v>
       </c>
       <c r="W36" s="1">
-        <v>16.375</v>
+        <v>10.1</v>
       </c>
       <c r="X36" s="1">
-        <v>17.361999999999998</v>
+        <v>9.0999999999999996</v>
       </c>
       <c r="Y36" s="1">
-        <v>13.763999999999999</v>
+        <v>8.6080000000000005</v>
       </c>
       <c r="Z36" s="1">
-        <v>12.419</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="AA36" s="1">
-        <v>10.885999999999999</v>
+        <v>7.9580000000000002</v>
       </c>
       <c r="AB36" s="1">
-        <v>8.3239999999999998</v>
+        <v>7.7169999999999996</v>
       </c>
       <c r="AC36" s="1">
-        <v>5.7779999999999996</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="AD36" s="1">
-        <v>4.2480000000000002</v>
+        <v>6.1079999999999997</v>
       </c>
       <c r="AE36" s="1">
-        <v>5.827</v>
+        <v>6.75</v>
       </c>
       <c r="AF36" s="1">
-        <v>13.787000000000001</v>
+        <v>7.758</v>
       </c>
       <c r="AG36" s="1">
-        <v>17.814</v>
+        <v>8.3499999999999996</v>
       </c>
       <c r="AH36" s="1">
-        <v>15.390000000000001</v>
+        <v>8.3580000000000005</v>
       </c>
       <c r="AI36" s="1">
-        <v>13.366</v>
+        <v>10.617000000000001</v>
       </c>
       <c r="AJ36" s="1">
-        <v>11.77</v>
+        <v>12.157999999999999</v>
       </c>
       <c r="AK36" s="1">
-        <v>10.699</v>
+        <v>12.667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="1">
-        <v>-99</v>
+        <v>56.387999999999998</v>
       </c>
       <c r="D37" s="1">
-        <v>-99</v>
+        <v>56.478999999999999</v>
       </c>
       <c r="E37" s="1">
-        <v>-99</v>
+        <v>56.524000000000001</v>
       </c>
       <c r="F37" s="1">
-        <v>-99</v>
+        <v>56.563000000000002</v>
       </c>
       <c r="G37" s="1">
-        <v>-99</v>
+        <v>56.564999999999998</v>
       </c>
       <c r="H37" s="1">
-        <v>-99</v>
+        <v>56.588000000000001</v>
       </c>
       <c r="I37" s="1">
-        <v>-99</v>
+        <v>56.597999999999999</v>
       </c>
       <c r="J37" s="1">
-        <v>-99</v>
+        <v>56.594000000000001</v>
       </c>
       <c r="K37" s="1">
-        <v>-99</v>
+        <v>56.609000000000002</v>
       </c>
       <c r="L37" s="1">
-        <v>-99</v>
+        <v>56.649000000000001</v>
       </c>
       <c r="M37" s="1">
-        <v>-99</v>
+        <v>56.694000000000003</v>
       </c>
       <c r="N37" s="1">
-        <v>-99</v>
+        <v>56.744</v>
       </c>
       <c r="O37" s="1">
-        <v>-99</v>
+        <v>56.773000000000003</v>
       </c>
       <c r="P37" s="1">
-        <v>-99</v>
+        <v>56.820999999999998</v>
       </c>
       <c r="Q37" s="1">
-        <v>-99</v>
+        <v>56.841999999999999</v>
       </c>
       <c r="R37" s="1">
-        <v>-99</v>
+        <v>56.844000000000001</v>
       </c>
       <c r="S37" s="1">
-        <v>-99</v>
+        <v>56.844000000000001</v>
       </c>
       <c r="T37" s="1">
-        <v>-99</v>
+        <v>56.875999999999998</v>
       </c>
       <c r="U37" s="1">
-        <v>-99</v>
+        <v>56.904000000000003</v>
       </c>
       <c r="V37" s="1">
-        <v>3.4289999999999998</v>
+        <v>56.908999999999999</v>
       </c>
       <c r="W37" s="1">
-        <v>3.4049999999999998</v>
+        <v>56.923999999999999</v>
       </c>
       <c r="X37" s="1">
-        <v>3.3879999999999999</v>
+        <v>56.960999999999999</v>
       </c>
       <c r="Y37" s="1">
-        <v>3.3759999999999999</v>
+        <v>56.988</v>
       </c>
       <c r="Z37" s="1">
-        <v>3.3610000000000002</v>
+        <v>57.131</v>
       </c>
       <c r="AA37" s="1">
-        <v>3.343</v>
+        <v>57.496000000000002</v>
       </c>
       <c r="AB37" s="1">
-        <v>3.323</v>
+        <v>57.875</v>
       </c>
       <c r="AC37" s="1">
-        <v>3.27</v>
+        <v>58.064</v>
       </c>
       <c r="AD37" s="1">
-        <v>3.2309999999999999</v>
+        <v>58.223999999999997</v>
       </c>
       <c r="AE37" s="1">
-        <v>3.198</v>
+        <v>58.652999999999999</v>
       </c>
       <c r="AF37" s="1">
-        <v>3.1629999999999998</v>
+        <v>59.000999999999998</v>
       </c>
       <c r="AG37" s="1">
-        <v>3.097</v>
+        <v>59.189999999999998</v>
       </c>
       <c r="AH37" s="1">
-        <v>3.028</v>
+        <v>59.365000000000002</v>
       </c>
       <c r="AI37" s="1">
-        <v>2.988</v>
+        <v>59.393999999999998</v>
       </c>
       <c r="AJ37" s="1">
-        <v>2.9580000000000002</v>
+        <v>59.685000000000002</v>
       </c>
       <c r="AK37" s="1">
-        <v>2.9319999999999999</v>
+        <v>60.783000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="1">
-        <v>30879</v>
+        <v>-99</v>
       </c>
       <c r="D38" s="1">
-        <v>31031.68</v>
+        <v>-99</v>
       </c>
       <c r="E38" s="1">
-        <v>31328.52</v>
+        <v>-99</v>
       </c>
       <c r="F38" s="1">
-        <v>31919.540000000001</v>
+        <v>-99</v>
       </c>
       <c r="G38" s="1">
-        <v>33401.779999999999</v>
+        <v>-99</v>
       </c>
       <c r="H38" s="1">
-        <v>35203.589999999997</v>
+        <v>-99</v>
       </c>
       <c r="I38" s="1">
-        <v>38539.300000000003</v>
+        <v>-99</v>
       </c>
       <c r="J38" s="1">
-        <v>39802.639999999999</v>
+        <v>-99</v>
       </c>
       <c r="K38" s="1">
-        <v>42801.860000000001</v>
+        <v>-99</v>
       </c>
       <c r="L38" s="1">
-        <v>46535.080000000002</v>
+        <v>-99</v>
       </c>
       <c r="M38" s="1">
-        <v>48458.879999999997</v>
+        <v>-99</v>
       </c>
       <c r="N38" s="1">
-        <v>51940.739999999998</v>
+        <v>-99</v>
       </c>
       <c r="O38" s="1">
-        <v>52171.480000000003</v>
+        <v>-99</v>
       </c>
       <c r="P38" s="1">
-        <v>53598.220000000001</v>
+        <v>3601.4099999999999</v>
       </c>
       <c r="Q38" s="1">
-        <v>54846.989999999998</v>
+        <v>3738.3800000000001</v>
       </c>
       <c r="R38" s="1">
-        <v>55372.010000000002</v>
+        <v>3846.0599999999999</v>
       </c>
       <c r="S38" s="1">
-        <v>55405.300000000003</v>
+        <v>3992.5500000000002</v>
       </c>
       <c r="T38" s="1">
-        <v>57948.639999999999</v>
+        <v>4386.9399999999996</v>
       </c>
       <c r="U38" s="1">
-        <v>60950.629999999997</v>
+        <v>4708.9300000000003</v>
       </c>
       <c r="V38" s="1">
-        <v>65263.519999999997</v>
+        <v>4853.8199999999997</v>
       </c>
       <c r="W38" s="1">
-        <v>69760.839999999997</v>
+        <v>5151.1000000000004</v>
       </c>
       <c r="X38" s="1">
-        <v>70305.800000000003</v>
+        <v>5586.0100000000002</v>
       </c>
       <c r="Y38" s="1">
-        <v>72104.940000000002</v>
+        <v>6071.2700000000004</v>
       </c>
       <c r="Z38" s="1">
-        <v>72419.589999999997</v>
+        <v>6657.1199999999999</v>
       </c>
       <c r="AA38" s="1">
-        <v>74507.210000000006</v>
+        <v>7323.4899999999998</v>
       </c>
       <c r="AB38" s="1">
-        <v>75858.25</v>
+        <v>8164.5</v>
       </c>
       <c r="AC38" s="1">
-        <v>78397.139999999999</v>
+        <v>9202.7099999999991</v>
       </c>
       <c r="AD38" s="1">
-        <v>83712.100000000006</v>
+        <v>10191.040000000001</v>
       </c>
       <c r="AE38" s="1">
-        <v>81702.770000000004</v>
+        <v>9944.1000000000004</v>
       </c>
       <c r="AF38" s="1">
-        <v>75789.259999999995</v>
+        <v>8647.7800000000007</v>
       </c>
       <c r="AG38" s="1">
-        <v>78720.369999999995</v>
+        <v>8566.9500000000007</v>
       </c>
       <c r="AH38" s="1">
-        <v>79144.220000000001</v>
+        <v>9194.0599999999995</v>
       </c>
       <c r="AI38" s="1">
-        <v>76704.330000000002</v>
+        <v>9778.9599999999991</v>
       </c>
       <c r="AJ38" s="1">
-        <v>78297.770000000004</v>
+        <v>10222.92</v>
       </c>
       <c r="AK38" s="1">
-        <v>80763.509999999995</v>
+        <v>10495.84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="1">
-        <v>0.72299999999999998</v>
+        <v>-99</v>
       </c>
       <c r="D39" s="1">
-        <v>1.0149999999999999</v>
+        <v>-99</v>
       </c>
       <c r="E39" s="1">
-        <v>1.3300000000000001</v>
+        <v>-99</v>
       </c>
       <c r="F39" s="1">
-        <v>1.615</v>
+        <v>-99</v>
       </c>
       <c r="G39" s="1">
-        <v>1.748</v>
+        <v>-99</v>
       </c>
       <c r="H39" s="1">
-        <v>1.667</v>
+        <v>-99</v>
       </c>
       <c r="I39" s="1">
-        <v>1.458</v>
+        <v>-99</v>
       </c>
       <c r="J39" s="1">
-        <v>1.669</v>
+        <v>-99</v>
       </c>
       <c r="K39" s="1">
-        <v>1.536</v>
+        <v>-99</v>
       </c>
       <c r="L39" s="1">
-        <v>1.4019999999999999</v>
+        <v>-99</v>
       </c>
       <c r="M39" s="1">
-        <v>1.256</v>
+        <v>-99</v>
       </c>
       <c r="N39" s="1">
-        <v>1.3799999999999999</v>
+        <v>-99</v>
       </c>
       <c r="O39" s="1">
-        <v>1.6339999999999999</v>
+        <v>-99</v>
       </c>
       <c r="P39" s="1">
-        <v>2.105</v>
+        <v>6.9509999999999996</v>
       </c>
       <c r="Q39" s="1">
-        <v>2.7320000000000002</v>
+        <v>6.9509999999999996</v>
       </c>
       <c r="R39" s="1">
-        <v>2.9609999999999999</v>
+        <v>6.9509999999999996</v>
       </c>
       <c r="S39" s="1">
-        <v>3.2410000000000001</v>
+        <v>20.710999999999999</v>
       </c>
       <c r="T39" s="1">
-        <v>3.302</v>
+        <v>15.167</v>
       </c>
       <c r="U39" s="1">
-        <v>3.0569999999999999</v>
+        <v>13.975</v>
       </c>
       <c r="V39" s="1">
-        <v>2.8900000000000001</v>
+        <v>14.050000000000001</v>
       </c>
       <c r="W39" s="1">
-        <v>2.4079999999999999</v>
+        <v>14.324999999999999</v>
       </c>
       <c r="X39" s="1">
-        <v>2.2250000000000001</v>
+        <v>13.449999999999999</v>
       </c>
       <c r="Y39" s="1">
-        <v>2.5</v>
+        <v>12.475</v>
       </c>
       <c r="Z39" s="1">
-        <v>3.3170000000000002</v>
+        <v>11.65</v>
       </c>
       <c r="AA39" s="1">
-        <v>3.7170000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="AB39" s="1">
-        <v>4.125</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="AC39" s="1">
-        <v>4.242</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="AD39" s="1">
-        <v>4.2000000000000002</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="AE39" s="1">
-        <v>4.1749999999999998</v>
+        <v>7.7249999999999996</v>
       </c>
       <c r="AF39" s="1">
-        <v>5.5</v>
+        <v>17.524999999999999</v>
       </c>
       <c r="AG39" s="1">
-        <v>5.867</v>
+        <v>19.5</v>
       </c>
       <c r="AH39" s="1">
-        <v>5.7000000000000002</v>
+        <v>16.202999999999999</v>
       </c>
       <c r="AI39" s="1">
-        <v>6.1340000000000003</v>
+        <v>15.048</v>
       </c>
       <c r="AJ39" s="1">
-        <v>6.8769999999999998</v>
+        <v>11.862</v>
       </c>
       <c r="AK39" s="1">
-        <v>7.1520000000000001</v>
+        <v>10.843</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="1">
-        <v>0.36399999999999999</v>
+        <v>-99</v>
       </c>
       <c r="D40" s="1">
-        <v>0.36499999999999999</v>
+        <v>-99</v>
       </c>
       <c r="E40" s="1">
-        <v>0.36599999999999999</v>
+        <v>-99</v>
       </c>
       <c r="F40" s="1">
-        <v>0.36599999999999999</v>
+        <v>-99</v>
       </c>
       <c r="G40" s="1">
-        <v>0.36599999999999999</v>
+        <v>-99</v>
       </c>
       <c r="H40" s="1">
-        <v>0.36699999999999999</v>
+        <v>-99</v>
       </c>
       <c r="I40" s="1">
-        <v>0.36799999999999999</v>
+        <v>-99</v>
       </c>
       <c r="J40" s="1">
-        <v>0.371</v>
+        <v>-99</v>
       </c>
       <c r="K40" s="1">
-        <v>0.374</v>
+        <v>-99</v>
       </c>
       <c r="L40" s="1">
-        <v>0.378</v>
+        <v>-99</v>
       </c>
       <c r="M40" s="1">
-        <v>0.38200000000000001</v>
+        <v>-99</v>
       </c>
       <c r="N40" s="1">
-        <v>0.38700000000000001</v>
+        <v>-99</v>
       </c>
       <c r="O40" s="1">
-        <v>0.39200000000000002</v>
+        <v>-99</v>
       </c>
       <c r="P40" s="1">
-        <v>0.39800000000000002</v>
+        <v>2.669</v>
       </c>
       <c r="Q40" s="1">
-        <v>0.40400000000000003</v>
+        <v>2.6269999999999998</v>
       </c>
       <c r="R40" s="1">
-        <v>0.40600000000000003</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="S40" s="1">
-        <v>0.41199999999999998</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="T40" s="1">
-        <v>0.41699999999999998</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="U40" s="1">
-        <v>0.42199999999999999</v>
+        <v>2.4209999999999998</v>
       </c>
       <c r="V40" s="1">
-        <v>0.42699999999999999</v>
+        <v>2.399</v>
       </c>
       <c r="W40" s="1">
-        <v>0.434</v>
+        <v>2.3820000000000001</v>
       </c>
       <c r="X40" s="1">
-        <v>0.44</v>
+        <v>2.3530000000000002</v>
       </c>
       <c r="Y40" s="1">
-        <v>0.44400000000000001</v>
+        <v>2.3210000000000002</v>
       </c>
       <c r="Z40" s="1">
-        <v>0.44800000000000001</v>
+        <v>2.2989999999999999</v>
       </c>
       <c r="AA40" s="1">
-        <v>0.45500000000000002</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="AB40" s="1">
-        <v>0.46100000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="AC40" s="1">
-        <v>0.46899999999999997</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="AD40" s="1">
-        <v>0.47599999999999998</v>
+        <v>2.2090000000000001</v>
       </c>
       <c r="AE40" s="1">
-        <v>0.48399999999999999</v>
+        <v>2.1920000000000002</v>
       </c>
       <c r="AF40" s="1">
-        <v>0.49399999999999999</v>
+        <v>2.1629999999999998</v>
       </c>
       <c r="AG40" s="1">
-        <v>0.502</v>
+        <v>2.121</v>
       </c>
       <c r="AH40" s="1">
-        <v>0.51200000000000001</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="AI40" s="1">
-        <v>0.52500000000000002</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="AJ40" s="1">
-        <v>0.53700000000000003</v>
+        <v>2.0390000000000001</v>
       </c>
       <c r="AK40" s="1">
-        <v>0.55000000000000004</v>
+        <v>2.0329999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="C41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="K41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="L41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="M41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="N41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="O41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="P41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="R41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="S41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="T41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="U41" s="1">
+        <v>-99</v>
+      </c>
+      <c r="V41" s="1">
+        <v>5109.4200000000001</v>
+      </c>
       <c r="W41" s="1">
-        <v>14183.290000000001</v>
+        <v>5331.8199999999997</v>
       </c>
       <c r="X41" s="1">
-        <v>13880.92</v>
+        <v>5718.7799999999997</v>
       </c>
       <c r="Y41" s="1">
-        <v>14145.01</v>
+        <v>6131.3100000000004</v>
       </c>
       <c r="Z41" s="1">
-        <v>14390.530000000001</v>
+        <v>6790.5299999999997</v>
       </c>
       <c r="AA41" s="1">
-        <v>14378.030000000001</v>
+        <v>7330.1899999999996</v>
       </c>
       <c r="AB41" s="1">
-        <v>14835.549999999999</v>
+        <v>7950.8100000000004</v>
       </c>
       <c r="AC41" s="1">
-        <v>15037.07</v>
+        <v>8677.0300000000007</v>
       </c>
       <c r="AD41" s="1">
-        <v>15592.83</v>
+        <v>9754.2399999999998</v>
       </c>
       <c r="AE41" s="1">
-        <v>16014.190000000001</v>
+        <v>10114.08</v>
       </c>
       <c r="AF41" s="1">
-        <v>15499.870000000001</v>
+        <v>8711.9599999999991</v>
       </c>
       <c r="AG41" s="1">
-        <v>15929.639999999999</v>
+        <v>9040.6000000000004</v>
       </c>
       <c r="AH41" s="1">
-        <v>16226.450000000001</v>
+        <v>9812.5499999999993</v>
       </c>
       <c r="AI41" s="1">
-        <v>16525.599999999999</v>
+        <v>10326.76</v>
       </c>
       <c r="AJ41" s="1">
-        <v>16761.759999999998</v>
+        <v>10771.57</v>
       </c>
       <c r="AK41" s="1">
-        <v>17184.939999999999</v>
+        <v>11185.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="C42" s="1">
+        <v>-99</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-99</v>
+      </c>
       <c r="F42" s="1">
-        <v>12.5</v>
+        <v>-99</v>
       </c>
       <c r="G42" s="1">
-        <v>12.5</v>
+        <v>-99</v>
       </c>
       <c r="H42" s="1">
-        <v>12.199999999999999</v>
+        <v>-99</v>
       </c>
       <c r="I42" s="1">
-        <v>11</v>
+        <v>-99</v>
       </c>
       <c r="J42" s="1">
-        <v>8.1999999999999993</v>
+        <v>-99</v>
       </c>
       <c r="K42" s="1">
-        <v>6.2000000000000002</v>
+        <v>-99</v>
       </c>
       <c r="L42" s="1">
-        <v>4.6360000000000001</v>
+        <v>-99</v>
       </c>
       <c r="M42" s="1">
-        <v>4.7999999999999998</v>
+        <v>-99</v>
       </c>
       <c r="N42" s="1">
-        <v>4.4000000000000004</v>
+        <v>-99</v>
       </c>
       <c r="O42" s="1">
-        <v>4.9000000000000004</v>
+        <v>-99</v>
       </c>
       <c r="P42" s="1">
-        <v>5.4000000000000004</v>
+        <v>-99</v>
       </c>
       <c r="Q42" s="1">
-        <v>5.4000000000000004</v>
+        <v>-99</v>
       </c>
       <c r="R42" s="1">
-        <v>4.9000000000000004</v>
+        <v>-99</v>
       </c>
       <c r="S42" s="1">
-        <v>5.2000000000000002</v>
+        <v>-99</v>
       </c>
       <c r="T42" s="1">
-        <v>6.2000000000000002</v>
+        <v>-99</v>
       </c>
       <c r="U42" s="1">
-        <v>6.5999999999999996</v>
+        <v>-99</v>
       </c>
       <c r="V42" s="1">
-        <v>7.0999999999999996</v>
+        <v>14.6</v>
       </c>
       <c r="W42" s="1">
-        <v>6.758</v>
+        <v>16.375</v>
       </c>
       <c r="X42" s="1">
-        <v>7.617</v>
+        <v>17.361999999999998</v>
       </c>
       <c r="Y42" s="1">
-        <v>7.4329999999999998</v>
+        <v>13.763999999999999</v>
       </c>
       <c r="Z42" s="1">
-        <v>7.7169999999999996</v>
+        <v>12.419</v>
       </c>
       <c r="AA42" s="1">
-        <v>7.2169999999999996</v>
+        <v>10.885999999999999</v>
       </c>
       <c r="AB42" s="1">
-        <v>6.9420000000000002</v>
+        <v>8.3239999999999998</v>
       </c>
       <c r="AC42" s="1">
-        <v>6.8170000000000002</v>
+        <v>5.7779999999999996</v>
       </c>
       <c r="AD42" s="1">
-        <v>6.4669999999999996</v>
+        <v>4.2480000000000002</v>
       </c>
       <c r="AE42" s="1">
-        <v>5.9749999999999996</v>
+        <v>5.827</v>
       </c>
       <c r="AF42" s="1">
-        <v>6.883</v>
+        <v>13.787000000000001</v>
       </c>
       <c r="AG42" s="1">
-        <v>6.867</v>
+        <v>17.814</v>
       </c>
       <c r="AH42" s="1">
-        <v>6.3920000000000003</v>
+        <v>15.390000000000001</v>
       </c>
       <c r="AI42" s="1">
-        <v>6.3079999999999998</v>
+        <v>13.366</v>
       </c>
       <c r="AJ42" s="1">
-        <v>6.383</v>
+        <v>11.77</v>
       </c>
       <c r="AK42" s="1">
-        <v>5.867</v>
+        <v>10.699</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="1">
-        <v>0.315</v>
+        <v>-99</v>
       </c>
       <c r="D43" s="1">
-        <v>0.318</v>
+        <v>-99</v>
       </c>
       <c r="E43" s="1">
-        <v>0.32000000000000001</v>
+        <v>-99</v>
       </c>
       <c r="F43" s="1">
-        <v>0.33200000000000002</v>
+        <v>-99</v>
       </c>
       <c r="G43" s="1">
-        <v>0.32900000000000001</v>
+        <v>-99</v>
       </c>
       <c r="H43" s="1">
-        <v>0.33200000000000002</v>
+        <v>-99</v>
       </c>
       <c r="I43" s="1">
-        <v>0.34100000000000003</v>
+        <v>-99</v>
       </c>
       <c r="J43" s="1">
-        <v>0.34300000000000003</v>
+        <v>-99</v>
       </c>
       <c r="K43" s="1">
-        <v>0.34599999999999997</v>
+        <v>-99</v>
       </c>
       <c r="L43" s="1">
-        <v>0.34899999999999998</v>
+        <v>-99</v>
       </c>
       <c r="M43" s="1">
-        <v>0.35199999999999998</v>
+        <v>-99</v>
       </c>
       <c r="N43" s="1">
-        <v>0.35599999999999998</v>
+        <v>-99</v>
       </c>
       <c r="O43" s="1">
-        <v>0.35999999999999999</v>
+        <v>-99</v>
       </c>
       <c r="P43" s="1">
-        <v>0.36299999999999999</v>
+        <v>-99</v>
       </c>
       <c r="Q43" s="1">
-        <v>0.36599999999999999</v>
+        <v>-99</v>
       </c>
       <c r="R43" s="1">
-        <v>0.36899999999999999</v>
+        <v>-99</v>
       </c>
       <c r="S43" s="1">
-        <v>0.371</v>
+        <v>-99</v>
       </c>
       <c r="T43" s="1">
-        <v>0.374</v>
+        <v>-99</v>
       </c>
       <c r="U43" s="1">
-        <v>0.377</v>
+        <v>-99</v>
       </c>
       <c r="V43" s="1">
-        <v>0.379</v>
+        <v>3.4289999999999998</v>
       </c>
       <c r="W43" s="1">
-        <v>0.38</v>
+        <v>3.4049999999999998</v>
       </c>
       <c r="X43" s="1">
-        <v>0.39100000000000001</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="Y43" s="1">
-        <v>0.39500000000000002</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="Z43" s="1">
-        <v>0.39700000000000002</v>
+        <v>3.3610000000000002</v>
       </c>
       <c r="AA43" s="1">
-        <v>0.40000000000000002</v>
+        <v>3.343</v>
       </c>
       <c r="AB43" s="1">
-        <v>0.40300000000000002</v>
+        <v>3.323</v>
       </c>
       <c r="AC43" s="1">
-        <v>0.40500000000000003</v>
+        <v>3.27</v>
       </c>
       <c r="AD43" s="1">
-        <v>0.40600000000000003</v>
+        <v>3.2309999999999999</v>
       </c>
       <c r="AE43" s="1">
-        <v>0.40799999999999997</v>
+        <v>3.198</v>
       </c>
       <c r="AF43" s="1">
-        <v>0.41099999999999998</v>
+        <v>3.1629999999999998</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.41399999999999998</v>
+        <v>3.097</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.41499999999999998</v>
+        <v>3.028</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.41799999999999998</v>
+        <v>2.988</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.42099999999999999</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.42499999999999999</v>
+        <v>2.9319999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="1">
-        <v>22513</v>
+        <v>30879</v>
       </c>
       <c r="D44" s="1">
-        <v>22244.82</v>
+        <v>31031.68</v>
       </c>
       <c r="E44" s="1">
-        <v>21858.240000000002</v>
+        <v>31328.52</v>
       </c>
       <c r="F44" s="1">
-        <v>22158.84</v>
+        <v>31919.540000000001</v>
       </c>
       <c r="G44" s="1">
-        <v>22759.779999999999</v>
+        <v>33401.779999999999</v>
       </c>
       <c r="H44" s="1">
-        <v>23254.689999999999</v>
+        <v>35203.589999999997</v>
       </c>
       <c r="I44" s="1">
-        <v>23849.779999999999</v>
+        <v>38539.300000000003</v>
       </c>
       <c r="J44" s="1">
-        <v>24137.060000000001</v>
+        <v>39802.639999999999</v>
       </c>
       <c r="K44" s="1">
-        <v>25081.57</v>
+        <v>42801.860000000001</v>
       </c>
       <c r="L44" s="1">
-        <v>26033.400000000001</v>
+        <v>46535.080000000002</v>
       </c>
       <c r="M44" s="1">
-        <v>26935.389999999999</v>
+        <v>48458.879999999997</v>
       </c>
       <c r="N44" s="1">
-        <v>27376.580000000002</v>
+        <v>51940.739999999998</v>
       </c>
       <c r="O44" s="1">
-        <v>27634.68</v>
+        <v>52171.480000000003</v>
       </c>
       <c r="P44" s="1">
-        <v>27787.77</v>
+        <v>53598.220000000001</v>
       </c>
       <c r="Q44" s="1">
-        <v>28437.43</v>
+        <v>54846.989999999998</v>
       </c>
       <c r="R44" s="1">
-        <v>29023.220000000001</v>
+        <v>55372.010000000002</v>
       </c>
       <c r="S44" s="1">
-        <v>29919.639999999999</v>
+        <v>55405.300000000003</v>
       </c>
       <c r="T44" s="1">
-        <v>31043.5</v>
+        <v>57948.639999999999</v>
       </c>
       <c r="U44" s="1">
-        <v>32251.860000000001</v>
+        <v>60950.629999999997</v>
       </c>
       <c r="V44" s="1">
-        <v>33655.010000000002</v>
+        <v>65263.519999999997</v>
       </c>
       <c r="W44" s="1">
-        <v>34832.540000000001</v>
+        <v>69760.839999999997</v>
       </c>
       <c r="X44" s="1">
-        <v>35307.620000000003</v>
+        <v>70305.800000000003</v>
       </c>
       <c r="Y44" s="1">
-        <v>35118.400000000001</v>
+        <v>72104.940000000002</v>
       </c>
       <c r="Z44" s="1">
-        <v>35053.5</v>
+        <v>72419.589999999997</v>
       </c>
       <c r="AA44" s="1">
-        <v>35639.300000000003</v>
+        <v>74507.210000000006</v>
       </c>
       <c r="AB44" s="1">
-        <v>36322.919999999998</v>
+        <v>75858.25</v>
       </c>
       <c r="AC44" s="1">
-        <v>37541.660000000003</v>
+        <v>78397.139999999999</v>
       </c>
       <c r="AD44" s="1">
-        <v>38843.489999999998</v>
+        <v>83712.100000000006</v>
       </c>
       <c r="AE44" s="1">
-        <v>39353.339999999997</v>
+        <v>81702.770000000004</v>
       </c>
       <c r="AF44" s="1">
-        <v>37676.230000000003</v>
+        <v>75789.259999999995</v>
       </c>
       <c r="AG44" s="1">
-        <v>38008.550000000003</v>
+        <v>78720.369999999995</v>
       </c>
       <c r="AH44" s="1">
-        <v>38460.309999999998</v>
+        <v>79144.220000000001</v>
       </c>
       <c r="AI44" s="1">
-        <v>37913.099999999999</v>
+        <v>76704.330000000002</v>
       </c>
       <c r="AJ44" s="1">
-        <v>37615.809999999998</v>
+        <v>78297.770000000004</v>
       </c>
       <c r="AK44" s="1">
-        <v>37861.599999999999</v>
+        <v>80763.509999999995</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="1">
-        <v>3.3540000000000001</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="D45" s="1">
-        <v>4.5830000000000002</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="E45" s="1">
-        <v>6.5250000000000004</v>
+        <v>1.3300000000000001</v>
       </c>
       <c r="F45" s="1">
-        <v>8.2539999999999996</v>
+        <v>1.615</v>
       </c>
       <c r="G45" s="1">
-        <v>8.0899999999999999</v>
+        <v>1.748</v>
       </c>
       <c r="H45" s="1">
-        <v>7.327</v>
+        <v>1.667</v>
       </c>
       <c r="I45" s="1">
-        <v>6.5199999999999996</v>
+        <v>1.458</v>
       </c>
       <c r="J45" s="1">
-        <v>6.3369999999999997</v>
+        <v>1.669</v>
       </c>
       <c r="K45" s="1">
-        <v>6.2469999999999999</v>
+        <v>1.536</v>
       </c>
       <c r="L45" s="1">
-        <v>5.6740000000000004</v>
+        <v>1.4019999999999999</v>
       </c>
       <c r="M45" s="1">
-        <v>5.1120000000000001</v>
+        <v>1.256</v>
       </c>
       <c r="N45" s="1">
-        <v>4.7990000000000004</v>
+        <v>1.3799999999999999</v>
       </c>
       <c r="O45" s="1">
-        <v>4.8650000000000002</v>
+        <v>1.6339999999999999</v>
       </c>
       <c r="P45" s="1">
-        <v>5.5300000000000002</v>
+        <v>2.105</v>
       </c>
       <c r="Q45" s="1">
-        <v>6.1929999999999996</v>
+        <v>2.7320000000000002</v>
       </c>
       <c r="R45" s="1">
-        <v>7.0640000000000001</v>
+        <v>2.9609999999999999</v>
       </c>
       <c r="S45" s="1">
-        <v>6.4400000000000004</v>
+        <v>3.2410000000000001</v>
       </c>
       <c r="T45" s="1">
-        <v>5.46</v>
+        <v>3.302</v>
       </c>
       <c r="U45" s="1">
-        <v>4.3040000000000003</v>
+        <v>3.0569999999999999</v>
       </c>
       <c r="V45" s="1">
-        <v>3.5379999999999998</v>
+        <v>2.8900000000000001</v>
       </c>
       <c r="W45" s="1">
-        <v>3.0600000000000001</v>
+        <v>2.4079999999999999</v>
       </c>
       <c r="X45" s="1">
-        <v>3.137</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="Y45" s="1">
-        <v>3.665</v>
+        <v>2.5</v>
       </c>
       <c r="Z45" s="1">
-        <v>4.8300000000000001</v>
+        <v>3.3170000000000002</v>
       </c>
       <c r="AA45" s="1">
-        <v>5.6639999999999997</v>
+        <v>3.7170000000000001</v>
       </c>
       <c r="AB45" s="1">
-        <v>5.8869999999999996</v>
+        <v>4.125</v>
       </c>
       <c r="AC45" s="1">
-        <v>5.0140000000000002</v>
+        <v>4.242</v>
       </c>
       <c r="AD45" s="1">
-        <v>4.165</v>
+        <v>4.2000000000000002</v>
       </c>
       <c r="AE45" s="1">
-        <v>3.665</v>
+        <v>4.1749999999999998</v>
       </c>
       <c r="AF45" s="1">
-        <v>4.3579999999999997</v>
+        <v>5.5</v>
       </c>
       <c r="AG45" s="1">
-        <v>4.9930000000000003</v>
+        <v>5.867</v>
       </c>
       <c r="AH45" s="1">
-        <v>4.9800000000000004</v>
+        <v>5.7000000000000002</v>
       </c>
       <c r="AI45" s="1">
-        <v>5.8330000000000002</v>
+        <v>6.1340000000000003</v>
       </c>
       <c r="AJ45" s="1">
-        <v>7.2590000000000003</v>
+        <v>6.8769999999999998</v>
       </c>
       <c r="AK45" s="1">
-        <v>7.3949999999999996</v>
+        <v>7.1520000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="1">
-        <v>14.15</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D46" s="1">
-        <v>14.247</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="E46" s="1">
-        <v>14.313000000000001</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="F46" s="1">
-        <v>14.367000000000001</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="G46" s="1">
-        <v>14.423999999999999</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="H46" s="1">
-        <v>14.492000000000001</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="I46" s="1">
-        <v>14.571999999999999</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="J46" s="1">
-        <v>14.664999999999999</v>
+        <v>0.371</v>
       </c>
       <c r="K46" s="1">
-        <v>14.76</v>
+        <v>0.374</v>
       </c>
       <c r="L46" s="1">
-        <v>14.849</v>
+        <v>0.378</v>
       </c>
       <c r="M46" s="1">
-        <v>14.952</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="N46" s="1">
-        <v>15.07</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="O46" s="1">
-        <v>15.183999999999999</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="P46" s="1">
-        <v>15.289999999999999</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="Q46" s="1">
-        <v>15.382999999999999</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="R46" s="1">
-        <v>15.459</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="S46" s="1">
-        <v>15.529999999999999</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="T46" s="1">
-        <v>15.611000000000001</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="U46" s="1">
-        <v>15.707000000000001</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="V46" s="1">
-        <v>15.811999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="W46" s="1">
-        <v>15.926</v>
+        <v>0.434</v>
       </c>
       <c r="X46" s="1">
-        <v>16.045999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="Y46" s="1">
-        <v>16.149000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="Z46" s="1">
-        <v>16.225000000000001</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="AA46" s="1">
-        <v>16.282</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="AB46" s="1">
-        <v>16.32</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="AC46" s="1">
-        <v>16.346</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="AD46" s="1">
-        <v>16.382000000000001</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="AE46" s="1">
-        <v>16.446000000000002</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="AF46" s="1">
-        <v>16.530000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="AG46" s="1">
-        <v>16.614999999999998</v>
+        <v>0.502</v>
       </c>
       <c r="AH46" s="1">
-        <v>16.693000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="AI46" s="1">
-        <v>16.754999999999999</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="AJ46" s="1">
-        <v>16.803999999999998</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="AK46" s="1">
-        <v>16.864000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="1">
-        <v>8774.1499999999996</v>
-      </c>
-      <c r="D47" s="1">
-        <v>9037.8400000000001</v>
-      </c>
-      <c r="E47" s="1">
-        <v>9172.9899999999998</v>
-      </c>
-      <c r="F47" s="1">
-        <v>9209.7600000000002</v>
-      </c>
-      <c r="G47" s="1">
-        <v>9080.9300000000003</v>
-      </c>
-      <c r="H47" s="1">
-        <v>9191.9799999999996</v>
-      </c>
-      <c r="I47" s="1">
-        <v>9483.8799999999992</v>
-      </c>
-      <c r="J47" s="1">
-        <v>10203.41</v>
-      </c>
-      <c r="K47" s="1">
-        <v>10758.6</v>
-      </c>
-      <c r="L47" s="1">
-        <v>11486.74</v>
-      </c>
-      <c r="M47" s="1">
-        <v>12411.860000000001</v>
-      </c>
-      <c r="N47" s="1">
-        <v>12863</v>
-      </c>
-      <c r="O47" s="1">
-        <v>13272.450000000001</v>
-      </c>
-      <c r="P47" s="1">
-        <v>13168.969999999999</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>13343.67</v>
-      </c>
-      <c r="R47" s="1">
-        <v>13614.780000000001</v>
-      </c>
-      <c r="S47" s="1">
-        <v>14038.08</v>
-      </c>
-      <c r="T47" s="1">
-        <v>14594.030000000001</v>
-      </c>
-      <c r="U47" s="1">
-        <v>15216.280000000001</v>
-      </c>
-      <c r="V47" s="1">
-        <v>15718.799999999999</v>
-      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
       <c r="W47" s="1">
-        <v>16199.85</v>
+        <v>14183.290000000001</v>
       </c>
       <c r="X47" s="1">
-        <v>16398.630000000001</v>
+        <v>13880.92</v>
       </c>
       <c r="Y47" s="1">
-        <v>16434.470000000001</v>
+        <v>14145.01</v>
       </c>
       <c r="Z47" s="1">
-        <v>16219.91</v>
+        <v>14390.530000000001</v>
       </c>
       <c r="AA47" s="1">
-        <v>16474.209999999999</v>
+        <v>14378.030000000001</v>
       </c>
       <c r="AB47" s="1">
-        <v>16569.869999999999</v>
+        <v>14835.549999999999</v>
       </c>
       <c r="AC47" s="1">
-        <v>16796.830000000002</v>
+        <v>15037.07</v>
       </c>
       <c r="AD47" s="1">
-        <v>17181.599999999999</v>
+        <v>15592.83</v>
       </c>
       <c r="AE47" s="1">
-        <v>17191.060000000001</v>
+        <v>16014.190000000001</v>
       </c>
       <c r="AF47" s="1">
-        <v>16663.310000000001</v>
+        <v>15499.870000000001</v>
       </c>
       <c r="AG47" s="1">
-        <v>16971.830000000002</v>
+        <v>15929.639999999999</v>
       </c>
       <c r="AH47" s="1">
-        <v>16686.240000000002</v>
+        <v>16226.450000000001</v>
       </c>
       <c r="AI47" s="1">
-        <v>16079.25</v>
+        <v>16525.599999999999</v>
       </c>
       <c r="AJ47" s="1">
-        <v>15908.209999999999</v>
+        <v>16761.759999999998</v>
       </c>
       <c r="AK47" s="1">
-        <v>16147.700000000001</v>
+        <v>17184.939999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="1">
-        <v>7.8239999999999998</v>
-      </c>
-      <c r="D48" s="1">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="E48" s="1">
-        <v>7.4569999999999999</v>
-      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1">
-        <v>7.9450000000000003</v>
+        <v>12.5</v>
       </c>
       <c r="G48" s="1">
-        <v>10.503</v>
+        <v>12.5</v>
       </c>
       <c r="H48" s="1">
-        <v>8.6739999999999995</v>
+        <v>12.199999999999999</v>
       </c>
       <c r="I48" s="1">
-        <v>8.6029999999999998</v>
+        <v>11</v>
       </c>
       <c r="J48" s="1">
-        <v>7.1260000000000003</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K48" s="1">
-        <v>7.069</v>
+        <v>6.2000000000000002</v>
       </c>
       <c r="L48" s="1">
-        <v>5.0590000000000002</v>
+        <v>4.6360000000000001</v>
       </c>
       <c r="M48" s="1">
-        <v>4.2249999999999996</v>
+        <v>4.7999999999999998</v>
       </c>
       <c r="N48" s="1">
-        <v>4.1379999999999999</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O48" s="1">
-        <v>3.8599999999999999</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P48" s="1">
-        <v>5.1269999999999998</v>
+        <v>5.4000000000000004</v>
       </c>
       <c r="Q48" s="1">
-        <v>6.3399999999999999</v>
+        <v>5.4000000000000004</v>
       </c>
       <c r="R48" s="1">
-        <v>7.1509999999999998</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="S48" s="1">
-        <v>7.2510000000000003</v>
+        <v>5.2000000000000002</v>
       </c>
       <c r="T48" s="1">
-        <v>6.7409999999999997</v>
+        <v>6.2000000000000002</v>
       </c>
       <c r="U48" s="1">
-        <v>4.9370000000000003</v>
+        <v>6.5999999999999996</v>
       </c>
       <c r="V48" s="1">
-        <v>4.3810000000000002</v>
+        <v>7.0999999999999996</v>
       </c>
       <c r="W48" s="1">
-        <v>3.9249999999999998</v>
+        <v>6.758</v>
       </c>
       <c r="X48" s="1">
-        <v>4.0090000000000003</v>
+        <v>7.617</v>
       </c>
       <c r="Y48" s="1">
-        <v>4.9950000000000001</v>
+        <v>7.4329999999999998</v>
       </c>
       <c r="Z48" s="1">
-        <v>6.2640000000000002</v>
+        <v>7.7169999999999996</v>
       </c>
       <c r="AA48" s="1">
-        <v>6.6230000000000002</v>
+        <v>7.2169999999999996</v>
       </c>
       <c r="AB48" s="1">
-        <v>7.5819999999999999</v>
+        <v>6.9420000000000002</v>
       </c>
       <c r="AC48" s="1">
-        <v>7.6470000000000002</v>
+        <v>6.8170000000000002</v>
       </c>
       <c r="AD48" s="1">
-        <v>7.9640000000000004</v>
+        <v>6.4669999999999996</v>
       </c>
       <c r="AE48" s="1">
-        <v>7.5519999999999996</v>
+        <v>5.9749999999999996</v>
       </c>
       <c r="AF48" s="1">
-        <v>9.4320000000000004</v>
+        <v>6.883</v>
       </c>
       <c r="AG48" s="1">
-        <v>10.77</v>
+        <v>6.867</v>
       </c>
       <c r="AH48" s="1">
-        <v>12.677</v>
+        <v>6.3920000000000003</v>
       </c>
       <c r="AI48" s="1">
-        <v>15.526</v>
+        <v>6.3079999999999998</v>
       </c>
       <c r="AJ48" s="1">
-        <v>16.183</v>
+        <v>6.383</v>
       </c>
       <c r="AK48" s="1">
-        <v>13.894</v>
+        <v>5.867</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="1">
-        <v>9.7780000000000005</v>
+        <v>0.315</v>
       </c>
       <c r="D49" s="1">
-        <v>9.8279999999999994</v>
+        <v>0.318</v>
       </c>
       <c r="E49" s="1">
-        <v>9.8919999999999995</v>
+        <v>0.32000000000000001</v>
       </c>
       <c r="F49" s="1">
-        <v>9.9480000000000004</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="G49" s="1">
-        <v>9.984</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="H49" s="1">
-        <v>10.025</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="I49" s="1">
-        <v>10.039</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="J49" s="1">
-        <v>10.042999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="K49" s="1">
-        <v>10.034000000000001</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="L49" s="1">
-        <v>10.023</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="M49" s="1">
-        <v>10.005000000000001</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="N49" s="1">
-        <v>9.9789999999999992</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="O49" s="1">
-        <v>9.9740000000000002</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="P49" s="1">
-        <v>9.9830000000000005</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="Q49" s="1">
-        <v>9.9990000000000006</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="R49" s="1">
-        <v>10.026</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="S49" s="1">
-        <v>10.064</v>
+        <v>0.371</v>
       </c>
       <c r="T49" s="1">
-        <v>10.109</v>
+        <v>0.374</v>
       </c>
       <c r="U49" s="1">
-        <v>10.16</v>
+        <v>0.377</v>
       </c>
       <c r="V49" s="1">
-        <v>10.218</v>
+        <v>0.379</v>
       </c>
       <c r="W49" s="1">
-        <v>10.289999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="X49" s="1">
-        <v>10.363</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="Y49" s="1">
-        <v>10.42</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="Z49" s="1">
-        <v>10.459</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="AA49" s="1">
-        <v>10.484</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="AB49" s="1">
-        <v>10.503</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="AC49" s="1">
-        <v>10.522</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="AD49" s="1">
-        <v>10.542999999999999</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="AE49" s="1">
-        <v>10.558</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="AF49" s="1">
-        <v>10.568</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="AG49" s="1">
-        <v>10.573</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="AH49" s="1">
-        <v>10.558</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="AI49" s="1">
-        <v>10.515000000000001</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="AJ49" s="1">
-        <v>10.457000000000001</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="AK49" s="1">
-        <v>10.394</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="C50" s="1">
+        <v>22513</v>
+      </c>
+      <c r="D50" s="1">
+        <v>22244.82</v>
+      </c>
+      <c r="E50" s="1">
+        <v>21858.240000000002</v>
+      </c>
+      <c r="F50" s="1">
+        <v>22158.84</v>
+      </c>
+      <c r="G50" s="1">
+        <v>22759.779999999999</v>
+      </c>
+      <c r="H50" s="1">
+        <v>23254.689999999999</v>
+      </c>
+      <c r="I50" s="1">
+        <v>23849.779999999999</v>
+      </c>
+      <c r="J50" s="1">
+        <v>24137.060000000001</v>
+      </c>
+      <c r="K50" s="1">
+        <v>25081.57</v>
+      </c>
+      <c r="L50" s="1">
+        <v>26033.400000000001</v>
+      </c>
+      <c r="M50" s="1">
+        <v>26935.389999999999</v>
+      </c>
+      <c r="N50" s="1">
+        <v>27376.580000000002</v>
+      </c>
+      <c r="O50" s="1">
+        <v>27634.68</v>
+      </c>
       <c r="P50" s="1">
-        <v>5871.9300000000003</v>
+        <v>27787.77</v>
       </c>
       <c r="Q50" s="1">
-        <v>6201.3699999999999</v>
+        <v>28437.43</v>
       </c>
       <c r="R50" s="1">
-        <v>6652.3400000000001</v>
+        <v>29023.220000000001</v>
       </c>
       <c r="S50" s="1">
-        <v>7099.3400000000001</v>
+        <v>29919.639999999999</v>
       </c>
       <c r="T50" s="1">
-        <v>7455.3500000000004</v>
+        <v>31043.5</v>
       </c>
       <c r="U50" s="1">
-        <v>7740.5799999999999</v>
+        <v>32251.860000000001</v>
       </c>
       <c r="V50" s="1">
-        <v>7709.5600000000004</v>
+        <v>33655.010000000002</v>
       </c>
       <c r="W50" s="1">
-        <v>7791.3599999999997</v>
+        <v>34832.540000000001</v>
       </c>
       <c r="X50" s="1">
-        <v>8047.9899999999998</v>
+        <v>35307.620000000003</v>
       </c>
       <c r="Y50" s="1">
-        <v>8418.8400000000001</v>
+        <v>35118.400000000001</v>
       </c>
       <c r="Z50" s="1">
-        <v>8866.2199999999993</v>
+        <v>35053.5</v>
       </c>
       <c r="AA50" s="1">
-        <v>9365.1399999999994</v>
+        <v>35639.300000000003</v>
       </c>
       <c r="AB50" s="1">
-        <v>9959.0799999999999</v>
+        <v>36322.919999999998</v>
       </c>
       <c r="AC50" s="1">
-        <v>10762.040000000001</v>
+        <v>37541.660000000003</v>
       </c>
       <c r="AD50" s="1">
-        <v>11906.700000000001</v>
+        <v>38843.489999999998</v>
       </c>
       <c r="AE50" s="1">
-        <v>12544.98</v>
+        <v>39353.339999999997</v>
       </c>
       <c r="AF50" s="1">
-        <v>11851.35</v>
+        <v>37676.230000000003</v>
       </c>
       <c r="AG50" s="1">
-        <v>12395.24</v>
+        <v>38008.550000000003</v>
       </c>
       <c r="AH50" s="1">
-        <v>12799.639999999999</v>
+        <v>38460.309999999998</v>
       </c>
       <c r="AI50" s="1">
-        <v>12976.17</v>
+        <v>37913.099999999999</v>
       </c>
       <c r="AJ50" s="1">
-        <v>13145.23</v>
+        <v>37615.809999999998</v>
       </c>
       <c r="AK50" s="1">
-        <v>13445.83</v>
+        <v>37861.599999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="C51" s="1">
+        <v>3.3540000000000001</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4.5830000000000002</v>
+      </c>
+      <c r="E51" s="1">
+        <v>6.5250000000000004</v>
+      </c>
+      <c r="F51" s="1">
+        <v>8.2539999999999996</v>
+      </c>
+      <c r="G51" s="1">
+        <v>8.0899999999999999</v>
+      </c>
+      <c r="H51" s="1">
+        <v>7.327</v>
+      </c>
+      <c r="I51" s="1">
+        <v>6.5199999999999996</v>
+      </c>
+      <c r="J51" s="1">
+        <v>6.3369999999999997</v>
+      </c>
+      <c r="K51" s="1">
+        <v>6.2469999999999999</v>
+      </c>
+      <c r="L51" s="1">
+        <v>5.6740000000000004</v>
+      </c>
+      <c r="M51" s="1">
+        <v>5.1120000000000001</v>
+      </c>
+      <c r="N51" s="1">
+        <v>4.7990000000000004</v>
+      </c>
+      <c r="O51" s="1">
+        <v>4.8650000000000002</v>
+      </c>
       <c r="P51" s="1">
-        <v>12.699999999999999</v>
+        <v>5.5300000000000002</v>
       </c>
       <c r="Q51" s="1">
-        <v>14.6</v>
+        <v>6.1929999999999996</v>
       </c>
       <c r="R51" s="1">
-        <v>13.699999999999999</v>
+        <v>7.0640000000000001</v>
       </c>
       <c r="S51" s="1">
-        <v>12.6</v>
+        <v>6.4400000000000004</v>
       </c>
       <c r="T51" s="1">
-        <v>11.882</v>
+        <v>5.46</v>
       </c>
       <c r="U51" s="1">
-        <v>12.699999999999999</v>
+        <v>4.3040000000000003</v>
       </c>
       <c r="V51" s="1">
-        <v>16.483000000000001</v>
+        <v>3.5379999999999998</v>
       </c>
       <c r="W51" s="1">
-        <v>18.875</v>
+        <v>3.0600000000000001</v>
       </c>
       <c r="X51" s="1">
-        <v>19.449999999999999</v>
+        <v>3.137</v>
       </c>
       <c r="Y51" s="1">
-        <v>18.817</v>
+        <v>3.665</v>
       </c>
       <c r="Z51" s="1">
-        <v>17.699999999999999</v>
+        <v>4.8300000000000001</v>
       </c>
       <c r="AA51" s="1">
-        <v>18.332999999999998</v>
+        <v>5.6639999999999997</v>
       </c>
       <c r="AB51" s="1">
-        <v>16.358000000000001</v>
+        <v>5.8869999999999996</v>
       </c>
       <c r="AC51" s="1">
-        <v>13.458</v>
+        <v>5.0140000000000002</v>
       </c>
       <c r="AD51" s="1">
-        <v>11.233000000000001</v>
+        <v>4.165</v>
       </c>
       <c r="AE51" s="1">
-        <v>9.5830000000000002</v>
+        <v>3.665</v>
       </c>
       <c r="AF51" s="1">
-        <v>12.117000000000001</v>
+        <v>4.3579999999999997</v>
       </c>
       <c r="AG51" s="1">
-        <v>14.483000000000001</v>
+        <v>4.9930000000000003</v>
       </c>
       <c r="AH51" s="1">
-        <v>13.692</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="AI51" s="1">
-        <v>13.975</v>
+        <v>5.8330000000000002</v>
       </c>
       <c r="AJ51" s="1">
-        <v>14.257999999999999</v>
+        <v>7.2590000000000003</v>
       </c>
       <c r="AK51" s="1">
-        <v>13.217000000000001</v>
+        <v>7.3949999999999996</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
+      <c r="C52" s="1">
+        <v>14.15</v>
+      </c>
+      <c r="D52" s="1">
+        <v>14.247</v>
+      </c>
+      <c r="E52" s="1">
+        <v>14.313000000000001</v>
+      </c>
+      <c r="F52" s="1">
+        <v>14.367000000000001</v>
+      </c>
+      <c r="G52" s="1">
+        <v>14.423999999999999</v>
+      </c>
+      <c r="H52" s="1">
+        <v>14.492000000000001</v>
+      </c>
+      <c r="I52" s="1">
+        <v>14.571999999999999</v>
+      </c>
+      <c r="J52" s="1">
+        <v>14.664999999999999</v>
+      </c>
+      <c r="K52" s="1">
+        <v>14.76</v>
+      </c>
+      <c r="L52" s="1">
+        <v>14.849</v>
+      </c>
+      <c r="M52" s="1">
+        <v>14.952</v>
+      </c>
+      <c r="N52" s="1">
+        <v>15.07</v>
+      </c>
+      <c r="O52" s="1">
+        <v>15.183999999999999</v>
+      </c>
       <c r="P52" s="1">
-        <v>5.3079999999999998</v>
+        <v>15.289999999999999</v>
       </c>
       <c r="Q52" s="1">
-        <v>5.3380000000000001</v>
+        <v>15.382999999999999</v>
       </c>
       <c r="R52" s="1">
-        <v>5.3680000000000003</v>
+        <v>15.459</v>
       </c>
       <c r="S52" s="1">
-        <v>5.3789999999999996</v>
+        <v>15.529999999999999</v>
       </c>
       <c r="T52" s="1">
-        <v>5.3499999999999996</v>
+        <v>15.611000000000001</v>
       </c>
       <c r="U52" s="1">
-        <v>5.3579999999999997</v>
+        <v>15.707000000000001</v>
       </c>
       <c r="V52" s="1">
-        <v>5.3689999999999998</v>
+        <v>15.811999999999999</v>
       </c>
       <c r="W52" s="1">
-        <v>5.3769999999999998</v>
+        <v>15.926</v>
       </c>
       <c r="X52" s="1">
-        <v>5.3789999999999996</v>
+        <v>16.045999999999999</v>
       </c>
       <c r="Y52" s="1">
-        <v>5.3840000000000003</v>
+        <v>16.149000000000001</v>
       </c>
       <c r="Z52" s="1">
-        <v>5.3890000000000002</v>
+        <v>16.225000000000001</v>
       </c>
       <c r="AA52" s="1">
-        <v>5.3700000000000001</v>
+        <v>16.282</v>
       </c>
       <c r="AB52" s="1">
-        <v>5.3789999999999996</v>
+        <v>16.32</v>
       </c>
       <c r="AC52" s="1">
-        <v>5.3890000000000002</v>
+        <v>16.346</v>
       </c>
       <c r="AD52" s="1">
-        <v>5.391</v>
+        <v>16.382000000000001</v>
       </c>
       <c r="AE52" s="1">
-        <v>5.3959999999999999</v>
+        <v>16.446000000000002</v>
       </c>
       <c r="AF52" s="1">
-        <v>5.4089999999999998</v>
+        <v>16.530000000000001</v>
       </c>
       <c r="AG52" s="1">
-        <v>5.4219999999999997</v>
+        <v>16.614999999999998</v>
       </c>
       <c r="AH52" s="1">
-        <v>5.3920000000000003</v>
+        <v>16.693000000000001</v>
       </c>
       <c r="AI52" s="1">
-        <v>5.4039999999999999</v>
+        <v>16.754999999999999</v>
       </c>
       <c r="AJ52" s="1">
-        <v>5.4109999999999996</v>
+        <v>16.803999999999998</v>
       </c>
       <c r="AK52" s="1">
-        <v>5.4169999999999998</v>
+        <v>16.864000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+      <c r="C53" s="1">
+        <v>8774.1499999999996</v>
+      </c>
+      <c r="D53" s="1">
+        <v>9037.8400000000001</v>
+      </c>
+      <c r="E53" s="1">
+        <v>9172.9899999999998</v>
+      </c>
+      <c r="F53" s="1">
+        <v>9209.7600000000002</v>
+      </c>
+      <c r="G53" s="1">
+        <v>9080.9300000000003</v>
+      </c>
+      <c r="H53" s="1">
+        <v>9191.9799999999996</v>
+      </c>
+      <c r="I53" s="1">
+        <v>9483.8799999999992</v>
+      </c>
+      <c r="J53" s="1">
+        <v>10203.41</v>
+      </c>
+      <c r="K53" s="1">
+        <v>10758.6</v>
+      </c>
+      <c r="L53" s="1">
+        <v>11486.74</v>
+      </c>
+      <c r="M53" s="1">
+        <v>12411.860000000001</v>
+      </c>
+      <c r="N53" s="1">
+        <v>12863</v>
+      </c>
       <c r="O53" s="1">
-        <v>10033.290000000001</v>
+        <v>13272.450000000001</v>
       </c>
       <c r="P53" s="1">
-        <v>10366.040000000001</v>
+        <v>13168.969999999999</v>
       </c>
       <c r="Q53" s="1">
-        <v>10915.440000000001</v>
+        <v>13343.67</v>
       </c>
       <c r="R53" s="1">
-        <v>11361.459999999999</v>
+        <v>13614.780000000001</v>
       </c>
       <c r="S53" s="1">
-        <v>11790.1</v>
+        <v>14038.08</v>
       </c>
       <c r="T53" s="1">
-        <v>12405.969999999999</v>
+        <v>14594.030000000001</v>
       </c>
       <c r="U53" s="1">
-        <v>12856.27</v>
+        <v>15216.280000000001</v>
       </c>
       <c r="V53" s="1">
-        <v>13534.370000000001</v>
+        <v>15718.799999999999</v>
       </c>
       <c r="W53" s="1">
-        <v>14029.950000000001</v>
+        <v>16199.85</v>
       </c>
       <c r="X53" s="1">
-        <v>14426.809999999999</v>
+        <v>16398.630000000001</v>
       </c>
       <c r="Y53" s="1">
-        <v>14950.709999999999</v>
+        <v>16434.470000000001</v>
       </c>
       <c r="Z53" s="1">
-        <v>15367.870000000001</v>
+        <v>16219.91</v>
       </c>
       <c r="AA53" s="1">
-        <v>16025.379999999999</v>
+        <v>16474.209999999999</v>
       </c>
       <c r="AB53" s="1">
-        <v>16657.220000000001</v>
+        <v>16569.869999999999</v>
       </c>
       <c r="AC53" s="1">
-        <v>17548.689999999999</v>
+        <v>16796.830000000002</v>
       </c>
       <c r="AD53" s="1">
-        <v>18701.32</v>
+        <v>17181.599999999999</v>
       </c>
       <c r="AE53" s="1">
-        <v>19319.549999999999</v>
+        <v>17191.060000000001</v>
       </c>
       <c r="AF53" s="1">
-        <v>17619.5</v>
+        <v>16663.310000000001</v>
       </c>
       <c r="AG53" s="1">
-        <v>17710.220000000001</v>
+        <v>16971.830000000002</v>
       </c>
       <c r="AH53" s="1">
-        <v>17797.290000000001</v>
+        <v>16686.240000000002</v>
       </c>
       <c r="AI53" s="1">
-        <v>17268.830000000002</v>
+        <v>16079.25</v>
       </c>
       <c r="AJ53" s="1">
-        <v>17058.549999999999</v>
+        <v>15908.209999999999</v>
       </c>
       <c r="AK53" s="1">
-        <v>17559.25</v>
+        <v>16147.700000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="C54" s="1">
+        <v>7.8239999999999998</v>
+      </c>
+      <c r="D54" s="1">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E54" s="1">
+        <v>7.4569999999999999</v>
+      </c>
+      <c r="F54" s="1">
+        <v>7.9450000000000003</v>
+      </c>
+      <c r="G54" s="1">
+        <v>10.503</v>
+      </c>
+      <c r="H54" s="1">
+        <v>8.6739999999999995</v>
+      </c>
+      <c r="I54" s="1">
+        <v>8.6029999999999998</v>
+      </c>
+      <c r="J54" s="1">
+        <v>7.1260000000000003</v>
+      </c>
+      <c r="K54" s="1">
+        <v>7.069</v>
+      </c>
+      <c r="L54" s="1">
+        <v>5.0590000000000002</v>
+      </c>
+      <c r="M54" s="1">
+        <v>4.2249999999999996</v>
+      </c>
+      <c r="N54" s="1">
+        <v>4.1379999999999999</v>
+      </c>
       <c r="O54" s="1">
-        <v>7.8360000000000003</v>
+        <v>3.8599999999999999</v>
       </c>
       <c r="P54" s="1">
-        <v>8.5909999999999993</v>
+        <v>5.1269999999999998</v>
       </c>
       <c r="Q54" s="1">
-        <v>8.4969999999999999</v>
+        <v>6.3399999999999999</v>
       </c>
       <c r="R54" s="1">
-        <v>7</v>
+        <v>7.1509999999999998</v>
       </c>
       <c r="S54" s="1">
-        <v>6.8920000000000003</v>
+        <v>7.2510000000000003</v>
       </c>
       <c r="T54" s="1">
-        <v>6.9169999999999998</v>
+        <v>6.7409999999999997</v>
       </c>
       <c r="U54" s="1">
-        <v>7.367</v>
+        <v>4.9370000000000003</v>
       </c>
       <c r="V54" s="1">
-        <v>7.3499999999999996</v>
+        <v>4.3810000000000002</v>
       </c>
       <c r="W54" s="1">
-        <v>6.742</v>
+        <v>3.9249999999999998</v>
       </c>
       <c r="X54" s="1">
-        <v>6.1920000000000002</v>
+        <v>4.0090000000000003</v>
       </c>
       <c r="Y54" s="1">
-        <v>6.3419999999999996</v>
+        <v>4.9950000000000001</v>
       </c>
       <c r="Z54" s="1">
-        <v>6.7000000000000002</v>
+        <v>6.2640000000000002</v>
       </c>
       <c r="AA54" s="1">
-        <v>6.3419999999999996</v>
+        <v>6.6230000000000002</v>
       </c>
       <c r="AB54" s="1">
-        <v>6.5419999999999998</v>
+        <v>7.5819999999999999</v>
       </c>
       <c r="AC54" s="1">
-        <v>5.992</v>
+        <v>7.6470000000000002</v>
       </c>
       <c r="AD54" s="1">
-        <v>4.8579999999999997</v>
+        <v>7.9640000000000004</v>
       </c>
       <c r="AE54" s="1">
-        <v>4.3920000000000003</v>
+        <v>7.5519999999999996</v>
       </c>
       <c r="AF54" s="1">
-        <v>5.8920000000000003</v>
+        <v>9.4320000000000004</v>
       </c>
       <c r="AG54" s="1">
-        <v>7.2670000000000003</v>
+        <v>10.77</v>
       </c>
       <c r="AH54" s="1">
-        <v>8.2080000000000002</v>
+        <v>12.677</v>
       </c>
       <c r="AI54" s="1">
-        <v>8.8919999999999995</v>
+        <v>15.526</v>
       </c>
       <c r="AJ54" s="1">
-        <v>10.141999999999999</v>
+        <v>16.183</v>
       </c>
       <c r="AK54" s="1">
-        <v>9.7330000000000005</v>
+        <v>13.894</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="C55" s="1">
+        <v>9.7780000000000005</v>
+      </c>
+      <c r="D55" s="1">
+        <v>9.8279999999999994</v>
+      </c>
+      <c r="E55" s="1">
+        <v>9.8919999999999995</v>
+      </c>
+      <c r="F55" s="1">
+        <v>9.9480000000000004</v>
+      </c>
+      <c r="G55" s="1">
+        <v>9.984</v>
+      </c>
+      <c r="H55" s="1">
+        <v>10.025</v>
+      </c>
+      <c r="I55" s="1">
+        <v>10.039</v>
+      </c>
+      <c r="J55" s="1">
+        <v>10.042999999999999</v>
+      </c>
+      <c r="K55" s="1">
+        <v>10.034000000000001</v>
+      </c>
+      <c r="L55" s="1">
+        <v>10.023</v>
+      </c>
+      <c r="M55" s="1">
+        <v>10.005000000000001</v>
+      </c>
+      <c r="N55" s="1">
+        <v>9.9789999999999992</v>
+      </c>
       <c r="O55" s="1">
-        <v>2</v>
+        <v>9.9740000000000002</v>
       </c>
       <c r="P55" s="1">
-        <v>1.99</v>
+        <v>9.9830000000000005</v>
       </c>
       <c r="Q55" s="1">
-        <v>1.99</v>
+        <v>9.9990000000000006</v>
       </c>
       <c r="R55" s="1">
-        <v>1.99</v>
+        <v>10.026</v>
       </c>
       <c r="S55" s="1">
-        <v>1.9870000000000001</v>
+        <v>10.064</v>
       </c>
       <c r="T55" s="1">
-        <v>1.9850000000000001</v>
+        <v>10.109</v>
       </c>
       <c r="U55" s="1">
-        <v>1.978</v>
+        <v>10.16</v>
       </c>
       <c r="V55" s="1">
-        <v>1.978</v>
+        <v>10.218</v>
       </c>
       <c r="W55" s="1">
-        <v>1.988</v>
+        <v>10.289999999999999</v>
       </c>
       <c r="X55" s="1">
-        <v>1.99</v>
+        <v>10.363</v>
       </c>
       <c r="Y55" s="1">
-        <v>1.994</v>
+        <v>10.42</v>
       </c>
       <c r="Z55" s="1">
-        <v>1.9950000000000001</v>
+        <v>10.459</v>
       </c>
       <c r="AA55" s="1">
-        <v>1.996</v>
+        <v>10.484</v>
       </c>
       <c r="AB55" s="1">
-        <v>1.998</v>
+        <v>10.503</v>
       </c>
       <c r="AC55" s="1">
-        <v>2.0030000000000001</v>
+        <v>10.522</v>
       </c>
       <c r="AD55" s="1">
-        <v>2.0099999999999998</v>
+        <v>10.542999999999999</v>
       </c>
       <c r="AE55" s="1">
-        <v>2.0099999999999998</v>
+        <v>10.558</v>
       </c>
       <c r="AF55" s="1">
-        <v>2.032</v>
+        <v>10.568</v>
       </c>
       <c r="AG55" s="1">
-        <v>2.0470000000000002</v>
+        <v>10.573</v>
       </c>
       <c r="AH55" s="1">
-        <v>2.0499999999999998</v>
+        <v>10.558</v>
       </c>
       <c r="AI55" s="1">
-        <v>2.0550000000000002</v>
+        <v>10.515000000000001</v>
       </c>
       <c r="AJ55" s="1">
-        <v>2.0590000000000002</v>
+        <v>10.457000000000001</v>
       </c>
       <c r="AK55" s="1">
-        <v>2.0609999999999999</v>
+        <v>10.394</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="1">
-        <v>13036.299999999999</v>
-      </c>
-      <c r="D56" s="1">
-        <v>12861</v>
-      </c>
-      <c r="E56" s="1">
-        <v>12950.98</v>
-      </c>
-      <c r="F56" s="1">
-        <v>13103.51</v>
-      </c>
-      <c r="G56" s="1">
-        <v>13273.1</v>
-      </c>
-      <c r="H56" s="1">
-        <v>13538.84</v>
-      </c>
-      <c r="I56" s="1">
-        <v>13963.110000000001</v>
-      </c>
-      <c r="J56" s="1">
-        <v>14725.860000000001</v>
-      </c>
-      <c r="K56" s="1">
-        <v>15471.190000000001</v>
-      </c>
-      <c r="L56" s="1">
-        <v>16213.09</v>
-      </c>
-      <c r="M56" s="1">
-        <v>16807.279999999999</v>
-      </c>
-      <c r="N56" s="1">
-        <v>17186.130000000001</v>
-      </c>
-      <c r="O56" s="1">
-        <v>17275.23</v>
-      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
       <c r="P56" s="1">
-        <v>16995.369999999999</v>
+        <v>5871.9300000000003</v>
       </c>
       <c r="Q56" s="1">
-        <v>17345.419999999998</v>
+        <v>6201.3699999999999</v>
       </c>
       <c r="R56" s="1">
-        <v>18018.209999999999</v>
+        <v>6652.3400000000001</v>
       </c>
       <c r="S56" s="1">
-        <v>18411.869999999999</v>
+        <v>7099.3400000000001</v>
       </c>
       <c r="T56" s="1">
-        <v>19073.200000000001</v>
+        <v>7455.3500000000004</v>
       </c>
       <c r="U56" s="1">
-        <v>19855.970000000001</v>
+        <v>7740.5799999999999</v>
       </c>
       <c r="V56" s="1">
-        <v>20691.32</v>
+        <v>7709.5600000000004</v>
       </c>
       <c r="W56" s="1">
-        <v>21554.93</v>
+        <v>7791.3599999999997</v>
       </c>
       <c r="X56" s="1">
-        <v>22166.310000000001</v>
+        <v>8047.9899999999998</v>
       </c>
       <c r="Y56" s="1">
-        <v>22418.18</v>
+        <v>8418.8400000000001</v>
       </c>
       <c r="Z56" s="1">
-        <v>22708.880000000001</v>
+        <v>8866.2199999999993</v>
       </c>
       <c r="AA56" s="1">
-        <v>23066.310000000001</v>
+        <v>9365.1399999999994</v>
       </c>
       <c r="AB56" s="1">
-        <v>23483.57</v>
+        <v>9959.0799999999999</v>
       </c>
       <c r="AC56" s="1">
-        <v>24079.630000000001</v>
+        <v>10762.040000000001</v>
       </c>
       <c r="AD56" s="1">
-        <v>24503.689999999999</v>
+        <v>11906.700000000001</v>
       </c>
       <c r="AE56" s="1">
-        <v>24374.68</v>
+        <v>12544.98</v>
       </c>
       <c r="AF56" s="1">
-        <v>23308.330000000002</v>
+        <v>11851.35</v>
       </c>
       <c r="AG56" s="1">
-        <v>23214.810000000001</v>
+        <v>12395.24</v>
       </c>
       <c r="AH56" s="1">
-        <v>22985.110000000001</v>
+        <v>12799.639999999999</v>
       </c>
       <c r="AI56" s="1">
-        <v>22490.139999999999</v>
+        <v>12976.17</v>
       </c>
       <c r="AJ56" s="1">
-        <v>22296.48</v>
+        <v>13145.23</v>
       </c>
       <c r="AK56" s="1">
-        <v>22669.049999999999</v>
+        <v>13445.83</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="1">
-        <v>11.010999999999999</v>
-      </c>
-      <c r="D57" s="1">
-        <v>13.755000000000001</v>
-      </c>
-      <c r="E57" s="1">
-        <v>15.77</v>
-      </c>
-      <c r="F57" s="1">
-        <v>17.215</v>
-      </c>
-      <c r="G57" s="1">
-        <v>19.937000000000001</v>
-      </c>
-      <c r="H57" s="1">
-        <v>21.305</v>
-      </c>
-      <c r="I57" s="1">
-        <v>20.907</v>
-      </c>
-      <c r="J57" s="1">
-        <v>20.222999999999999</v>
-      </c>
-      <c r="K57" s="1">
-        <v>19.238</v>
-      </c>
-      <c r="L57" s="1">
-        <v>17.239999999999998</v>
-      </c>
-      <c r="M57" s="1">
-        <v>16.238</v>
-      </c>
-      <c r="N57" s="1">
-        <v>16.312999999999999</v>
-      </c>
-      <c r="O57" s="1">
-        <v>18.353000000000002</v>
-      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
       <c r="P57" s="1">
-        <v>22.640000000000001</v>
+        <v>12.699999999999999</v>
       </c>
       <c r="Q57" s="1">
-        <v>24.117999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="R57" s="1">
-        <v>22.899999999999999</v>
+        <v>13.699999999999999</v>
       </c>
       <c r="S57" s="1">
-        <v>22.079999999999998</v>
+        <v>12.6</v>
       </c>
       <c r="T57" s="1">
-        <v>20.609999999999999</v>
+        <v>11.882</v>
       </c>
       <c r="U57" s="1">
-        <v>18.605</v>
+        <v>12.699999999999999</v>
       </c>
       <c r="V57" s="1">
-        <v>15.640000000000001</v>
+        <v>16.483000000000001</v>
       </c>
       <c r="W57" s="1">
-        <v>13.856999999999999</v>
+        <v>18.875</v>
       </c>
       <c r="X57" s="1">
-        <v>10.539999999999999</v>
+        <v>19.449999999999999</v>
       </c>
       <c r="Y57" s="1">
-        <v>11.475</v>
+        <v>18.817</v>
       </c>
       <c r="Z57" s="1">
-        <v>11.5</v>
+        <v>17.699999999999999</v>
       </c>
       <c r="AA57" s="1">
-        <v>10.949999999999999</v>
+        <v>18.332999999999998</v>
       </c>
       <c r="AB57" s="1">
-        <v>9.1500000000000004</v>
+        <v>16.358000000000001</v>
       </c>
       <c r="AC57" s="1">
-        <v>8.4499999999999993</v>
+        <v>13.458</v>
       </c>
       <c r="AD57" s="1">
-        <v>8.2249999999999996</v>
+        <v>11.233000000000001</v>
       </c>
       <c r="AE57" s="1">
-        <v>11.25</v>
+        <v>9.5830000000000002</v>
       </c>
       <c r="AF57" s="1">
-        <v>17.875</v>
+        <v>12.117000000000001</v>
       </c>
       <c r="AG57" s="1">
-        <v>19.850000000000001</v>
+        <v>14.483000000000001</v>
       </c>
       <c r="AH57" s="1">
-        <v>21.399999999999999</v>
+        <v>13.692</v>
       </c>
       <c r="AI57" s="1">
-        <v>24.800000000000001</v>
+        <v>13.975</v>
       </c>
       <c r="AJ57" s="1">
-        <v>26.100000000000001</v>
+        <v>14.257999999999999</v>
       </c>
       <c r="AK57" s="1">
-        <v>24.449999999999999</v>
+        <v>13.217000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1">
+        <v>5.3079999999999998</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>5.3380000000000001</v>
+      </c>
+      <c r="R58" s="1">
+        <v>5.3680000000000003</v>
+      </c>
+      <c r="S58" s="1">
+        <v>5.3789999999999996</v>
+      </c>
+      <c r="T58" s="1">
+        <v>5.3499999999999996</v>
+      </c>
+      <c r="U58" s="1">
+        <v>5.3579999999999997</v>
+      </c>
+      <c r="V58" s="1">
+        <v>5.3689999999999998</v>
+      </c>
+      <c r="W58" s="1">
+        <v>5.3769999999999998</v>
+      </c>
+      <c r="X58" s="1">
+        <v>5.3789999999999996</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>5.3840000000000003</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>5.3890000000000002</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>5.3700000000000001</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>5.3789999999999996</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>5.3890000000000002</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>5.391</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>5.3959999999999999</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>5.4089999999999998</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>5.4219999999999997</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>5.3920000000000003</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>5.4039999999999999</v>
+      </c>
+      <c r="AJ58" s="1">
+        <v>5.4109999999999996</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>5.4169999999999998</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1">
+        <v>10033.290000000001</v>
+      </c>
+      <c r="P59" s="1">
+        <v>10366.040000000001</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>10915.440000000001</v>
+      </c>
+      <c r="R59" s="1">
+        <v>11361.459999999999</v>
+      </c>
+      <c r="S59" s="1">
+        <v>11790.1</v>
+      </c>
+      <c r="T59" s="1">
+        <v>12405.969999999999</v>
+      </c>
+      <c r="U59" s="1">
+        <v>12856.27</v>
+      </c>
+      <c r="V59" s="1">
+        <v>13534.370000000001</v>
+      </c>
+      <c r="W59" s="1">
+        <v>14029.950000000001</v>
+      </c>
+      <c r="X59" s="1">
+        <v>14426.809999999999</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>14950.709999999999</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>15367.870000000001</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>16025.379999999999</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>16657.220000000001</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>17548.689999999999</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>18701.32</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>19319.549999999999</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>17619.5</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>17710.220000000001</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>17797.290000000001</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>17268.830000000002</v>
+      </c>
+      <c r="AJ59" s="1">
+        <v>17058.549999999999</v>
+      </c>
+      <c r="AK59" s="1">
+        <v>17559.25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1">
+        <v>7.8360000000000003</v>
+      </c>
+      <c r="P60" s="1">
+        <v>8.5909999999999993</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>8.4969999999999999</v>
+      </c>
+      <c r="R60" s="1">
+        <v>7</v>
+      </c>
+      <c r="S60" s="1">
+        <v>6.8920000000000003</v>
+      </c>
+      <c r="T60" s="1">
+        <v>6.9169999999999998</v>
+      </c>
+      <c r="U60" s="1">
+        <v>7.367</v>
+      </c>
+      <c r="V60" s="1">
+        <v>7.3499999999999996</v>
+      </c>
+      <c r="W60" s="1">
+        <v>6.742</v>
+      </c>
+      <c r="X60" s="1">
+        <v>6.1920000000000002</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>6.3419999999999996</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>6.7000000000000002</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>6.3419999999999996</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>6.5419999999999998</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>5.992</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>4.8579999999999997</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>4.3920000000000003</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>5.8920000000000003</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>7.2670000000000003</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>8.2080000000000002</v>
+      </c>
+      <c r="AI60" s="1">
+        <v>8.8919999999999995</v>
+      </c>
+      <c r="AJ60" s="1">
+        <v>10.141999999999999</v>
+      </c>
+      <c r="AK60" s="1">
+        <v>9.7330000000000005</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1">
+        <v>2</v>
+      </c>
+      <c r="P61" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="R61" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="S61" s="1">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="T61" s="1">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="U61" s="1">
+        <v>1.978</v>
+      </c>
+      <c r="V61" s="1">
+        <v>1.978</v>
+      </c>
+      <c r="W61" s="1">
+        <v>1.988</v>
+      </c>
+      <c r="X61" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>1.994</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>1.996</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>1.998</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>2.032</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="AJ61" s="1">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="AK61" s="1">
+        <v>2.0609999999999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="1">
+        <v>13036.299999999999</v>
+      </c>
+      <c r="D62" s="1">
+        <v>12861</v>
+      </c>
+      <c r="E62" s="1">
+        <v>12950.98</v>
+      </c>
+      <c r="F62" s="1">
+        <v>13103.51</v>
+      </c>
+      <c r="G62" s="1">
+        <v>13273.1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>13538.84</v>
+      </c>
+      <c r="I62" s="1">
+        <v>13963.110000000001</v>
+      </c>
+      <c r="J62" s="1">
+        <v>14725.860000000001</v>
+      </c>
+      <c r="K62" s="1">
+        <v>15471.190000000001</v>
+      </c>
+      <c r="L62" s="1">
+        <v>16213.09</v>
+      </c>
+      <c r="M62" s="1">
+        <v>16807.279999999999</v>
+      </c>
+      <c r="N62" s="1">
+        <v>17186.130000000001</v>
+      </c>
+      <c r="O62" s="1">
+        <v>17275.23</v>
+      </c>
+      <c r="P62" s="1">
+        <v>16995.369999999999</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>17345.419999999998</v>
+      </c>
+      <c r="R62" s="1">
+        <v>18018.209999999999</v>
+      </c>
+      <c r="S62" s="1">
+        <v>18411.869999999999</v>
+      </c>
+      <c r="T62" s="1">
+        <v>19073.200000000001</v>
+      </c>
+      <c r="U62" s="1">
+        <v>19855.970000000001</v>
+      </c>
+      <c r="V62" s="1">
+        <v>20691.32</v>
+      </c>
+      <c r="W62" s="1">
+        <v>21554.93</v>
+      </c>
+      <c r="X62" s="1">
+        <v>22166.310000000001</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>22418.18</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>22708.880000000001</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>23066.310000000001</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>23483.57</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>24079.630000000001</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>24503.689999999999</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>24374.68</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>23308.330000000002</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>23214.810000000001</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>22985.110000000001</v>
+      </c>
+      <c r="AI62" s="1">
+        <v>22490.139999999999</v>
+      </c>
+      <c r="AJ62" s="1">
+        <v>22296.48</v>
+      </c>
+      <c r="AK62" s="1">
+        <v>22669.049999999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="1">
+        <v>11.010999999999999</v>
+      </c>
+      <c r="D63" s="1">
+        <v>13.755000000000001</v>
+      </c>
+      <c r="E63" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="F63" s="1">
+        <v>17.215</v>
+      </c>
+      <c r="G63" s="1">
+        <v>19.937000000000001</v>
+      </c>
+      <c r="H63" s="1">
+        <v>21.305</v>
+      </c>
+      <c r="I63" s="1">
+        <v>20.907</v>
+      </c>
+      <c r="J63" s="1">
+        <v>20.222999999999999</v>
+      </c>
+      <c r="K63" s="1">
+        <v>19.238</v>
+      </c>
+      <c r="L63" s="1">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="M63" s="1">
+        <v>16.238</v>
+      </c>
+      <c r="N63" s="1">
+        <v>16.312999999999999</v>
+      </c>
+      <c r="O63" s="1">
+        <v>18.353000000000002</v>
+      </c>
+      <c r="P63" s="1">
+        <v>22.640000000000001</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>24.117999999999999</v>
+      </c>
+      <c r="R63" s="1">
+        <v>22.899999999999999</v>
+      </c>
+      <c r="S63" s="1">
+        <v>22.079999999999998</v>
+      </c>
+      <c r="T63" s="1">
+        <v>20.609999999999999</v>
+      </c>
+      <c r="U63" s="1">
+        <v>18.605</v>
+      </c>
+      <c r="V63" s="1">
+        <v>15.640000000000001</v>
+      </c>
+      <c r="W63" s="1">
+        <v>13.856999999999999</v>
+      </c>
+      <c r="X63" s="1">
+        <v>10.539999999999999</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>11.475</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>10.949999999999999</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>9.1500000000000004</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>8.2249999999999996</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>17.875</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>21.399999999999999</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>24.800000000000001</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>26.100000000000001</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>24.449999999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="1">
         <v>37.387</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D64" s="1">
         <v>37.741999999999997</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E64" s="1">
         <v>37.944000000000003</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F64" s="1">
         <v>38.122</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G64" s="1">
         <v>38.274000000000001</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H64" s="1">
         <v>38.408999999999999</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I64" s="1">
         <v>38.520000000000003</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J64" s="1">
         <v>38.609999999999999</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K64" s="1">
         <v>38.692</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L64" s="1">
         <v>38.768999999999998</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M64" s="1">
         <v>38.837000000000003</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N64" s="1">
         <v>38.939999999999998</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O64" s="1">
         <v>39.069000000000003</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P64" s="1">
         <v>39.189999999999998</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q64" s="1">
         <v>39.295999999999999</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R64" s="1">
         <v>39.387999999999998</v>
       </c>
-      <c r="S58" s="1">
+      <c r="S64" s="1">
         <v>39.478999999999999</v>
       </c>
-      <c r="T58" s="1">
+      <c r="T64" s="1">
         <v>39.582999999999998</v>
       </c>
-      <c r="U58" s="1">
+      <c r="U64" s="1">
         <v>39.722000000000001</v>
       </c>
-      <c r="V58" s="1">
+      <c r="V64" s="1">
         <v>39.927</v>
       </c>
-      <c r="W58" s="1">
+      <c r="W64" s="1">
         <v>40.264000000000003</v>
       </c>
-      <c r="X58" s="1">
+      <c r="X64" s="1">
         <v>40.720999999999997</v>
       </c>
-      <c r="Y58" s="1">
+      <c r="Y64" s="1">
         <v>41.423999999999999</v>
       </c>
-      <c r="Z58" s="1">
+      <c r="Z64" s="1">
         <v>42.195999999999998</v>
       </c>
-      <c r="AA58" s="1">
+      <c r="AA64" s="1">
         <v>42.859000000000002</v>
       </c>
-      <c r="AB58" s="1">
+      <c r="AB64" s="1">
         <v>43.662999999999997</v>
       </c>
-      <c r="AC58" s="1">
+      <c r="AC64" s="1">
         <v>44.360999999999997</v>
       </c>
-      <c r="AD58" s="1">
+      <c r="AD64" s="1">
         <v>45.235999999999997</v>
       </c>
-      <c r="AE58" s="1">
+      <c r="AE64" s="1">
         <v>45.982999999999997</v>
       </c>
-      <c r="AF58" s="1">
+      <c r="AF64" s="1">
         <v>46.368000000000002</v>
       </c>
-      <c r="AG58" s="1">
+      <c r="AG64" s="1">
         <v>46.561999999999998</v>
       </c>
-      <c r="AH58" s="1">
+      <c r="AH64" s="1">
         <v>46.735999999999997</v>
       </c>
-      <c r="AI58" s="1">
+      <c r="AI64" s="1">
         <v>46.765999999999998</v>
       </c>
-      <c r="AJ58" s="1">
+      <c r="AJ64" s="1">
         <v>46.593000000000004</v>
       </c>
-      <c r="AK58" s="1">
+      <c r="AK64" s="1">
         <v>46.463999999999999</v>
       </c>
     </row>
